--- a/BackTest/2019-11-17 BackTest IOST.xlsx
+++ b/BackTest/2019-11-17 BackTest IOST.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.7599999999999998</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>63.15789473684195</v>
+      </c>
       <c r="L12" t="n">
         <v>8.311</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.7699999999999996</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>69.86301369863024</v>
+      </c>
       <c r="L13" t="n">
         <v>8.358000000000001</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.8199999999999985</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>79.7101449275366</v>
+      </c>
       <c r="L14" t="n">
         <v>8.404</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.8699999999999974</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>73.58490566037771</v>
+      </c>
       <c r="L15" t="n">
         <v>8.463999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.8799999999999972</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>68.6274509803926</v>
+      </c>
       <c r="L16" t="n">
         <v>8.501999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.8999999999999968</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>56.75675675675718</v>
+      </c>
       <c r="L17" t="n">
         <v>8.538999999999998</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.9199999999999964</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>41.17647058823591</v>
+      </c>
       <c r="L18" t="n">
         <v>8.557999999999998</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.9299999999999962</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>41.17647058823591</v>
+      </c>
       <c r="L19" t="n">
         <v>8.570999999999998</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.9999999999999964</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-9.677419354838598</v>
+      </c>
       <c r="L20" t="n">
         <v>8.577999999999999</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.279999999999996</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-73.07692307692345</v>
+      </c>
       <c r="L21" t="n">
         <v>8.547000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.439999999999996</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-31.34328358208958</v>
+      </c>
       <c r="L22" t="n">
         <v>8.525</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.439999999999996</v>
       </c>
       <c r="K23" t="n">
-        <v>18.05555555555559</v>
+        <v>-25.80645161290335</v>
       </c>
       <c r="L23" t="n">
         <v>8.504000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>1.659999999999997</v>
       </c>
       <c r="K24" t="n">
-        <v>4.938271604938289</v>
+        <v>-54.43037974683547</v>
       </c>
       <c r="L24" t="n">
         <v>8.466000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>1.729999999999997</v>
       </c>
       <c r="K25" t="n">
-        <v>15.00000000000005</v>
+        <v>-41.17647058823527</v>
       </c>
       <c r="L25" t="n">
         <v>8.430000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>1.879999999999997</v>
       </c>
       <c r="K26" t="n">
-        <v>11.6883116883117</v>
+        <v>-22.44897959183661</v>
       </c>
       <c r="L26" t="n">
         <v>8.41</v>
@@ -1613,7 +1635,7 @@
         <v>2.029999999999996</v>
       </c>
       <c r="K27" t="n">
-        <v>18.0722891566265</v>
+        <v>-4.504504504504571</v>
       </c>
       <c r="L27" t="n">
         <v>8.403000000000002</v>
@@ -1662,7 +1684,7 @@
         <v>2.089999999999995</v>
       </c>
       <c r="K28" t="n">
-        <v>5.128205128205154</v>
+        <v>-8.620689655172395</v>
       </c>
       <c r="L28" t="n">
         <v>8.392000000000001</v>
@@ -1711,7 +1733,7 @@
         <v>2.219999999999995</v>
       </c>
       <c r="K29" t="n">
-        <v>-6.097560975609752</v>
+        <v>-13.11475409836068</v>
       </c>
       <c r="L29" t="n">
         <v>8.369000000000002</v>
@@ -1760,7 +1782,7 @@
         <v>2.359999999999996</v>
       </c>
       <c r="K30" t="n">
-        <v>2.824858757062193</v>
+        <v>24.07407407407405</v>
       </c>
       <c r="L30" t="n">
         <v>8.367000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>2.389999999999995</v>
       </c>
       <c r="K31" t="n">
-        <v>-4.705882352941089</v>
+        <v>7.368421052631614</v>
       </c>
       <c r="L31" t="n">
         <v>8.389999999999999</v>
@@ -1860,7 +1882,7 @@
         <v>2.439999999999994</v>
       </c>
       <c r="K32" t="n">
-        <v>-5.952380952380952</v>
+        <v>11.99999999999994</v>
       </c>
       <c r="L32" t="n">
         <v>8.401999999999999</v>
@@ -1911,7 +1933,7 @@
         <v>2.519999999999994</v>
       </c>
       <c r="K33" t="n">
-        <v>-9.714285714285738</v>
+        <v>30.23255813953494</v>
       </c>
       <c r="L33" t="n">
         <v>8.405999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>2.569999999999995</v>
       </c>
       <c r="K34" t="n">
-        <v>-4.000000000000024</v>
+        <v>28.57142857142867</v>
       </c>
       <c r="L34" t="n">
         <v>8.436999999999999</v>
@@ -2013,7 +2035,7 @@
         <v>2.619999999999994</v>
       </c>
       <c r="K35" t="n">
-        <v>-4.000000000000024</v>
+        <v>18.91891891891884</v>
       </c>
       <c r="L35" t="n">
         <v>8.465999999999999</v>
@@ -2064,7 +2086,7 @@
         <v>2.769999999999992</v>
       </c>
       <c r="K36" t="n">
-        <v>-11.11111111111109</v>
+        <v>-21.6216216216215</v>
       </c>
       <c r="L36" t="n">
         <v>8.465</v>
@@ -2115,7 +2137,7 @@
         <v>2.819999999999991</v>
       </c>
       <c r="K37" t="n">
-        <v>-9.375000000000011</v>
+        <v>-6.849315068493278</v>
       </c>
       <c r="L37" t="n">
         <v>8.453999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>2.919999999999991</v>
       </c>
       <c r="K38" t="n">
-        <v>-3.000000000000033</v>
+        <v>25.71428571428583</v>
       </c>
       <c r="L38" t="n">
         <v>8.459</v>
@@ -2217,7 +2239,7 @@
         <v>2.919999999999991</v>
       </c>
       <c r="K39" t="n">
-        <v>-2.512562814070394</v>
+        <v>7.142857142857053</v>
       </c>
       <c r="L39" t="n">
         <v>8.477</v>
@@ -2268,7 +2290,7 @@
         <v>2.929999999999991</v>
       </c>
       <c r="K40" t="n">
-        <v>1.554404145077692</v>
+        <v>14.81481481481462</v>
       </c>
       <c r="L40" t="n">
         <v>8.482000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>2.959999999999992</v>
       </c>
       <c r="K41" t="n">
-        <v>20.23809523809528</v>
+        <v>11.53846153846168</v>
       </c>
       <c r="L41" t="n">
         <v>8.493</v>
@@ -2370,7 +2392,7 @@
         <v>2.999999999999991</v>
       </c>
       <c r="K42" t="n">
-        <v>14.10256410256407</v>
+        <v>37.50000000000018</v>
       </c>
       <c r="L42" t="n">
         <v>8.503</v>
@@ -2421,7 +2443,7 @@
         <v>3.009999999999991</v>
       </c>
       <c r="K43" t="n">
-        <v>14.64968152866238</v>
+        <v>31.81818181818183</v>
       </c>
       <c r="L43" t="n">
         <v>8.522</v>
@@ -2472,7 +2494,7 @@
         <v>3.059999999999992</v>
       </c>
       <c r="K44" t="n">
-        <v>35.71428571428584</v>
+        <v>31.81818181818211</v>
       </c>
       <c r="L44" t="n">
         <v>8.541</v>
@@ -2523,7 +2545,7 @@
         <v>3.059999999999992</v>
       </c>
       <c r="K45" t="n">
-        <v>32.33082706766928</v>
+        <v>100</v>
       </c>
       <c r="L45" t="n">
         <v>8.555</v>
@@ -2574,7 +2596,7 @@
         <v>3.069999999999991</v>
       </c>
       <c r="K46" t="n">
-        <v>24.36974789915971</v>
+        <v>100</v>
       </c>
       <c r="L46" t="n">
         <v>8.584999999999999</v>
@@ -2625,7 +2647,7 @@
         <v>3.179999999999991</v>
       </c>
       <c r="K47" t="n">
-        <v>2.608695652174023</v>
+        <v>15.38461538461575</v>
       </c>
       <c r="L47" t="n">
         <v>8.598999999999998</v>
@@ -2676,7 +2698,7 @@
         <v>3.269999999999991</v>
       </c>
       <c r="K48" t="n">
-        <v>15.25423728813562</v>
+        <v>37.1428571428574</v>
       </c>
       <c r="L48" t="n">
         <v>8.611999999999998</v>
@@ -2727,7 +2749,7 @@
         <v>3.329999999999991</v>
       </c>
       <c r="K49" t="n">
-        <v>22.52252252252261</v>
+        <v>15.00000000000011</v>
       </c>
       <c r="L49" t="n">
         <v>8.618999999999996</v>
@@ -2778,7 +2800,7 @@
         <v>3.719999999999992</v>
       </c>
       <c r="K50" t="n">
-        <v>36.76470588235306</v>
+        <v>55.26315789473685</v>
       </c>
       <c r="L50" t="n">
         <v>8.663999999999996</v>
@@ -2829,7 +2851,7 @@
         <v>3.729999999999992</v>
       </c>
       <c r="K51" t="n">
-        <v>40.29850746268662</v>
+        <v>53.42465753424662</v>
       </c>
       <c r="L51" t="n">
         <v>8.706999999999997</v>
@@ -2880,7 +2902,7 @@
         <v>3.739999999999991</v>
       </c>
       <c r="K52" t="n">
-        <v>38.46153846153855</v>
+        <v>53.42465753424662</v>
       </c>
       <c r="L52" t="n">
         <v>8.746999999999996</v>
@@ -2931,7 +2953,7 @@
         <v>3.979999999999992</v>
       </c>
       <c r="K53" t="n">
-        <v>56.16438356164396</v>
+        <v>63.04347826086958</v>
       </c>
       <c r="L53" t="n">
         <v>8.809999999999997</v>
@@ -2982,7 +3004,7 @@
         <v>4.099999999999991</v>
       </c>
       <c r="K54" t="n">
-        <v>58.16993464052296</v>
+        <v>67.30769230769229</v>
       </c>
       <c r="L54" t="n">
         <v>8.879999999999997</v>
@@ -3033,7 +3055,7 @@
         <v>4.419999999999991</v>
       </c>
       <c r="K55" t="n">
-        <v>64.44444444444454</v>
+        <v>74.81481481481482</v>
       </c>
       <c r="L55" t="n">
         <v>8.981999999999996</v>
@@ -3084,7 +3106,7 @@
         <v>4.54999999999999</v>
       </c>
       <c r="K56" t="n">
-        <v>66.29213483146074</v>
+        <v>72.2627737226278</v>
       </c>
       <c r="L56" t="n">
         <v>9.069999999999997</v>
@@ -3135,7 +3157,7 @@
         <v>4.54999999999999</v>
       </c>
       <c r="K57" t="n">
-        <v>65.3179190751446</v>
+        <v>70.31250000000007</v>
       </c>
       <c r="L57" t="n">
         <v>9.168999999999997</v>
@@ -3186,7 +3208,7 @@
         <v>4.72999999999999</v>
       </c>
       <c r="K58" t="n">
-        <v>46.96132596685094</v>
+        <v>55.71428571428585</v>
       </c>
       <c r="L58" t="n">
         <v>9.240999999999996</v>
@@ -3237,7 +3259,7 @@
         <v>4.849999999999989</v>
       </c>
       <c r="K59" t="n">
-        <v>50.25906735751305</v>
+        <v>45.13274336283195</v>
       </c>
       <c r="L59" t="n">
         <v>9.330999999999998</v>
@@ -3288,7 +3310,7 @@
         <v>4.89999999999999</v>
       </c>
       <c r="K60" t="n">
-        <v>51.26903553299503</v>
+        <v>47.00854700854714</v>
       </c>
       <c r="L60" t="n">
         <v>9.386999999999997</v>
@@ -3339,7 +3361,7 @@
         <v>5.259999999999989</v>
       </c>
       <c r="K61" t="n">
-        <v>58.26086956521745</v>
+        <v>59.21052631578958</v>
       </c>
       <c r="L61" t="n">
         <v>9.477999999999998</v>
@@ -3390,7 +3412,7 @@
         <v>5.30999999999999</v>
       </c>
       <c r="K62" t="n">
-        <v>58.44155844155854</v>
+        <v>53.38345864661667</v>
       </c>
       <c r="L62" t="n">
         <v>9.572999999999997</v>
@@ -3441,7 +3463,7 @@
         <v>5.479999999999992</v>
       </c>
       <c r="K63" t="n">
-        <v>47.36842105263157</v>
+        <v>30.43478260869563</v>
       </c>
       <c r="L63" t="n">
         <v>9.626999999999999</v>
@@ -3492,7 +3514,7 @@
         <v>5.589999999999993</v>
       </c>
       <c r="K64" t="n">
-        <v>48.61660079051383</v>
+        <v>17.948717948718</v>
       </c>
       <c r="L64" t="n">
         <v>9.679999999999998</v>
@@ -3543,7 +3565,7 @@
         <v>5.729999999999993</v>
       </c>
       <c r="K65" t="n">
-        <v>40.82397003745315</v>
+        <v>16.94915254237278</v>
       </c>
       <c r="L65" t="n">
         <v>9.686999999999999</v>
@@ -3594,7 +3616,7 @@
         <v>5.829999999999993</v>
       </c>
       <c r="K66" t="n">
-        <v>42.75362318840577</v>
+        <v>23.43749999999986</v>
       </c>
       <c r="L66" t="n">
         <v>9.716999999999999</v>
@@ -3645,7 +3667,7 @@
         <v>5.849999999999993</v>
       </c>
       <c r="K67" t="n">
-        <v>47.565543071161</v>
+        <v>41.07142857142838</v>
       </c>
       <c r="L67" t="n">
         <v>9.744999999999999</v>
@@ -3696,7 +3718,7 @@
         <v>5.939999999999992</v>
       </c>
       <c r="K68" t="n">
-        <v>40.82397003745315</v>
+        <v>22.93577981651369</v>
       </c>
       <c r="L68" t="n">
         <v>9.782</v>
@@ -3747,7 +3769,7 @@
         <v>6.309999999999992</v>
       </c>
       <c r="K69" t="n">
-        <v>26.17449664429533</v>
+        <v>-12.05673758865246</v>
       </c>
       <c r="L69" t="n">
         <v>9.77</v>
@@ -3798,7 +3820,7 @@
         <v>6.519999999999991</v>
       </c>
       <c r="K70" t="n">
-        <v>21.42857142857142</v>
+        <v>-25.39682539682539</v>
       </c>
       <c r="L70" t="n">
         <v>9.773999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>6.54999999999999</v>
       </c>
       <c r="K71" t="n">
-        <v>19.85815602836882</v>
+        <v>-32.25806451612905</v>
       </c>
       <c r="L71" t="n">
         <v>9.739000000000001</v>
@@ -3900,7 +3922,7 @@
         <v>6.55999999999999</v>
       </c>
       <c r="K72" t="n">
-        <v>19.14893617021281</v>
+        <v>-22.22222222222211</v>
       </c>
       <c r="L72" t="n">
         <v>9.697999999999999</v>
@@ -3951,7 +3973,7 @@
         <v>6.629999999999988</v>
       </c>
       <c r="K73" t="n">
-        <v>13.96226415094339</v>
+        <v>-26.92307692307714</v>
       </c>
       <c r="L73" t="n">
         <v>9.681000000000001</v>
@@ -4002,7 +4024,7 @@
         <v>6.699999999999989</v>
       </c>
       <c r="K74" t="n">
-        <v>12.30769230769233</v>
+        <v>-7.21649484536089</v>
       </c>
       <c r="L74" t="n">
         <v>9.66</v>
@@ -4053,7 +4075,7 @@
         <v>6.749999999999988</v>
       </c>
       <c r="K75" t="n">
-        <v>-2.145922746781073</v>
+        <v>-23.91304347826089</v>
       </c>
       <c r="L75" t="n">
         <v>9.648</v>
@@ -4104,7 +4126,7 @@
         <v>6.839999999999987</v>
       </c>
       <c r="K76" t="n">
-        <v>-0.4366812227074148</v>
+        <v>-29.29292929292936</v>
       </c>
       <c r="L76" t="n">
         <v>9.616999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>7.249999999999988</v>
       </c>
       <c r="K77" t="n">
-        <v>-15.55555555555557</v>
+        <v>-46.56488549618334</v>
       </c>
       <c r="L77" t="n">
         <v>9.546999999999999</v>
@@ -4206,7 +4228,7 @@
         <v>7.269999999999987</v>
       </c>
       <c r="K78" t="n">
-        <v>-8.66141732283468</v>
+        <v>-22.91666666666684</v>
       </c>
       <c r="L78" t="n">
         <v>9.487999999999998</v>
@@ -4257,7 +4279,7 @@
         <v>7.339999999999987</v>
       </c>
       <c r="K79" t="n">
-        <v>-16.46586345381528</v>
+        <v>-60.9756097560978</v>
       </c>
       <c r="L79" t="n">
         <v>9.459</v>
@@ -4308,7 +4330,7 @@
         <v>7.409999999999988</v>
       </c>
       <c r="K80" t="n">
-        <v>-15.53784860557773</v>
+        <v>-46.51162790697691</v>
       </c>
       <c r="L80" t="n">
         <v>9.415999999999999</v>
@@ -4359,7 +4381,7 @@
         <v>7.509999999999987</v>
       </c>
       <c r="K81" t="n">
-        <v>-28.88888888888892</v>
+        <v>-30.52631578947386</v>
       </c>
       <c r="L81" t="n">
         <v>9.385999999999999</v>
@@ -4410,7 +4432,7 @@
         <v>7.509999999999987</v>
       </c>
       <c r="K82" t="n">
-        <v>-31.8181818181819</v>
+        <v>-40.90909090909089</v>
       </c>
       <c r="L82" t="n">
         <v>9.356999999999999</v>
@@ -4461,7 +4483,7 @@
         <v>7.549999999999988</v>
       </c>
       <c r="K83" t="n">
-        <v>-23.67149758454102</v>
+        <v>-45.88235294117634</v>
       </c>
       <c r="L83" t="n">
         <v>9.324999999999999</v>
@@ -4512,7 +4534,7 @@
         <v>7.619999999999989</v>
       </c>
       <c r="K84" t="n">
-        <v>-33.00492610837445</v>
+        <v>-47.12643678160916</v>
       </c>
       <c r="L84" t="n">
         <v>9.279</v>
@@ -4563,7 +4585,7 @@
         <v>7.689999999999989</v>
       </c>
       <c r="K85" t="n">
-        <v>-30.61224489795923</v>
+        <v>-45.88235294117646</v>
       </c>
       <c r="L85" t="n">
         <v>9.230999999999998</v>
@@ -4614,7 +4636,7 @@
         <v>7.799999999999988</v>
       </c>
       <c r="K86" t="n">
-        <v>-41.11675126903557</v>
+        <v>-16.36363636363632</v>
       </c>
       <c r="L86" t="n">
         <v>9.180999999999999</v>
@@ -4665,7 +4687,7 @@
         <v>7.859999999999989</v>
       </c>
       <c r="K87" t="n">
-        <v>-42.28855721393041</v>
+        <v>-28.8135593220338</v>
       </c>
       <c r="L87" t="n">
         <v>9.165999999999999</v>
@@ -4716,7 +4738,7 @@
         <v>7.909999999999988</v>
       </c>
       <c r="K88" t="n">
-        <v>-36.04060913705597</v>
+        <v>-8.771929824561523</v>
       </c>
       <c r="L88" t="n">
         <v>9.154</v>
@@ -4767,7 +4789,7 @@
         <v>8.059999999999986</v>
       </c>
       <c r="K89" t="n">
-        <v>-28.0000000000001</v>
+        <v>-41.53846153846156</v>
       </c>
       <c r="L89" t="n">
         <v>9.133999999999999</v>
@@ -4818,7 +4840,7 @@
         <v>8.119999999999985</v>
       </c>
       <c r="K90" t="n">
-        <v>-40.00000000000018</v>
+        <v>-50.81967213114782</v>
       </c>
       <c r="L90" t="n">
         <v>9.113</v>
@@ -4869,7 +4891,7 @@
         <v>8.149999999999986</v>
       </c>
       <c r="K91" t="n">
-        <v>-36.25000000000009</v>
+        <v>-43.74999999999999</v>
       </c>
       <c r="L91" t="n">
         <v>9.084999999999999</v>
@@ -4920,7 +4942,7 @@
         <v>8.289999999999987</v>
       </c>
       <c r="K92" t="n">
-        <v>-41.04046242774579</v>
+        <v>-62.1621621621624</v>
       </c>
       <c r="L92" t="n">
         <v>9.042999999999999</v>
@@ -4971,7 +4993,7 @@
         <v>8.319999999999986</v>
       </c>
       <c r="K93" t="n">
-        <v>-44.37869822485213</v>
+        <v>-51.42857142857178</v>
       </c>
       <c r="L93" t="n">
         <v>9</v>
@@ -5022,7 +5044,7 @@
         <v>8.319999999999986</v>
       </c>
       <c r="K94" t="n">
-        <v>-50.61728395061738</v>
+        <v>-46.03174603174638</v>
       </c>
       <c r="L94" t="n">
         <v>8.964</v>
@@ -5073,7 +5095,7 @@
         <v>8.319999999999986</v>
       </c>
       <c r="K95" t="n">
-        <v>-49.04458598726128</v>
+        <v>-34.61538461538505</v>
       </c>
       <c r="L95" t="n">
         <v>8.935</v>
@@ -5124,7 +5146,7 @@
         <v>8.369999999999985</v>
       </c>
       <c r="K96" t="n">
-        <v>-47.7124183006537</v>
+        <v>-33.33333333333356</v>
       </c>
       <c r="L96" t="n">
         <v>8.912000000000003</v>
@@ -5175,7 +5197,7 @@
         <v>8.549999999999985</v>
       </c>
       <c r="K97" t="n">
-        <v>-10.76923076923084</v>
+        <v>-6.249999999999896</v>
       </c>
       <c r="L97" t="n">
         <v>8.913000000000002</v>
@@ -5226,7 +5248,7 @@
         <v>8.689999999999985</v>
       </c>
       <c r="K98" t="n">
-        <v>-1.408450704225324</v>
+        <v>39.68253968253975</v>
       </c>
       <c r="L98" t="n">
         <v>8.923000000000002</v>
@@ -5277,7 +5299,7 @@
         <v>8.949999999999985</v>
       </c>
       <c r="K99" t="n">
-        <v>19.25465838509323</v>
+        <v>54.21686746987964</v>
       </c>
       <c r="L99" t="n">
         <v>8.974000000000002</v>
@@ -5328,7 +5350,7 @@
         <v>9.099999999999985</v>
       </c>
       <c r="K100" t="n">
-        <v>5.325443786982247</v>
+        <v>28.42105263157892</v>
       </c>
       <c r="L100" t="n">
         <v>9.004000000000001</v>
@@ -5379,7 +5401,7 @@
         <v>9.119999999999985</v>
       </c>
       <c r="K101" t="n">
-        <v>-1.863354037267044</v>
+        <v>46.98795180722908</v>
       </c>
       <c r="L101" t="n">
         <v>9.029000000000002</v>
@@ -5430,7 +5452,7 @@
         <v>9.139999999999985</v>
       </c>
       <c r="K102" t="n">
-        <v>-0.6134969325153253</v>
+        <v>46.34146341463433</v>
       </c>
       <c r="L102" t="n">
         <v>9.070000000000002</v>
@@ -5481,7 +5503,7 @@
         <v>9.439999999999985</v>
       </c>
       <c r="K103" t="n">
-        <v>13.22751322751325</v>
+        <v>60.71428571428589</v>
       </c>
       <c r="L103" t="n">
         <v>9.138000000000002</v>
@@ -5532,7 +5554,7 @@
         <v>9.569999999999984</v>
       </c>
       <c r="K104" t="n">
-        <v>23.07692307692309</v>
+        <v>64.80000000000014</v>
       </c>
       <c r="L104" t="n">
         <v>9.218999999999999</v>
@@ -5583,7 +5605,7 @@
         <v>9.619999999999985</v>
       </c>
       <c r="K105" t="n">
-        <v>29.53367875647676</v>
+        <v>72.80000000000001</v>
       </c>
       <c r="L105" t="n">
         <v>9.305</v>
@@ -5634,7 +5656,7 @@
         <v>9.729999999999986</v>
       </c>
       <c r="K106" t="n">
-        <v>29.53367875647664</v>
+        <v>52.5423728813558</v>
       </c>
       <c r="L106" t="n">
         <v>9.385</v>
@@ -5685,7 +5707,7 @@
         <v>9.819999999999988</v>
       </c>
       <c r="K107" t="n">
-        <v>36.73469387755107</v>
+        <v>50.4424778761061</v>
       </c>
       <c r="L107" t="n">
         <v>9.456</v>
@@ -5736,7 +5758,7 @@
         <v>9.819999999999988</v>
       </c>
       <c r="K108" t="n">
-        <v>35.0785340314137</v>
+        <v>35.63218390804592</v>
       </c>
       <c r="L108" t="n">
         <v>9.513000000000002</v>
@@ -5787,7 +5809,7 @@
         <v>9.969999999999988</v>
       </c>
       <c r="K109" t="n">
-        <v>35.07853403141358</v>
+        <v>35.63218390804592</v>
       </c>
       <c r="L109" t="n">
         <v>9.529</v>
@@ -5838,7 +5860,7 @@
         <v>10.17999999999999</v>
       </c>
       <c r="K110" t="n">
-        <v>19.41747572815532</v>
+        <v>11.32075471698102</v>
       </c>
       <c r="L110" t="n">
         <v>9.539</v>
@@ -5889,7 +5911,7 @@
         <v>10.35999999999999</v>
       </c>
       <c r="K111" t="n">
-        <v>24.88687782805422</v>
+        <v>22.95081967213102</v>
       </c>
       <c r="L111" t="n">
         <v>9.568999999999999</v>
@@ -5940,7 +5962,7 @@
         <v>10.78999999999999</v>
       </c>
       <c r="K112" t="n">
-        <v>10.39999999999998</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L112" t="n">
         <v>9.553999999999998</v>
@@ -5991,7 +6013,7 @@
         <v>10.94999999999999</v>
       </c>
       <c r="K113" t="n">
-        <v>14.82889733840305</v>
+        <v>-30.43478260869555</v>
       </c>
       <c r="L113" t="n">
         <v>9.525</v>
@@ -6042,7 +6064,7 @@
         <v>11.10999999999999</v>
       </c>
       <c r="K114" t="n">
-        <v>8.243727598566315</v>
+        <v>-42.28187919463082</v>
       </c>
       <c r="L114" t="n">
         <v>9.466999999999999</v>
@@ -6093,7 +6115,7 @@
         <v>11.11999999999999</v>
       </c>
       <c r="K115" t="n">
-        <v>7.857142857142874</v>
+        <v>-38.12949640287759</v>
       </c>
       <c r="L115" t="n">
         <v>9.402999999999999</v>
@@ -6144,7 +6166,7 @@
         <v>11.48999999999999</v>
       </c>
       <c r="K116" t="n">
-        <v>20.5128205128205</v>
+        <v>-14.97005988023951</v>
       </c>
       <c r="L116" t="n">
         <v>9.386999999999997</v>
@@ -6195,7 +6217,7 @@
         <v>11.68999999999999</v>
       </c>
       <c r="K117" t="n">
-        <v>8.280254777070041</v>
+        <v>-24.06417112299467</v>
       </c>
       <c r="L117" t="n">
         <v>9.341999999999999</v>
@@ -6246,7 +6268,7 @@
         <v>11.68999999999999</v>
       </c>
       <c r="K118" t="n">
-        <v>3.999999999999967</v>
+        <v>-17.4418604651163</v>
       </c>
       <c r="L118" t="n">
         <v>9.297000000000001</v>
@@ -6297,7 +6319,7 @@
         <v>11.68999999999999</v>
       </c>
       <c r="K119" t="n">
-        <v>-5.109489051094901</v>
+        <v>-5.960264900662236</v>
       </c>
       <c r="L119" t="n">
         <v>9.266999999999999</v>
@@ -6348,7 +6370,7 @@
         <v>11.72999999999999</v>
       </c>
       <c r="K120" t="n">
-        <v>-1.140684410646362</v>
+        <v>-22.62773722627726</v>
       </c>
       <c r="L120" t="n">
         <v>9.254000000000001</v>
@@ -6399,7 +6421,7 @@
         <v>11.85999999999999</v>
       </c>
       <c r="K121" t="n">
-        <v>4.379562043795586</v>
+        <v>23.36448598130841</v>
       </c>
       <c r="L121" t="n">
         <v>9.236000000000001</v>
@@ -6450,7 +6472,7 @@
         <v>12.07999999999999</v>
       </c>
       <c r="K122" t="n">
-        <v>-4.081632653061193</v>
+        <v>-11.50442477876098</v>
       </c>
       <c r="L122" t="n">
         <v>9.239000000000001</v>
@@ -6501,7 +6523,7 @@
         <v>12.28999999999999</v>
       </c>
       <c r="K123" t="n">
-        <v>-7.368421052631605</v>
+        <v>20.33898305084751</v>
       </c>
       <c r="L123" t="n">
         <v>9.247</v>
@@ -6552,7 +6574,7 @@
         <v>12.33999999999999</v>
       </c>
       <c r="K124" t="n">
-        <v>-10.46931407942234</v>
+        <v>24.59016393442631</v>
       </c>
       <c r="L124" t="n">
         <v>9.276</v>
@@ -6603,7 +6625,7 @@
         <v>12.42999999999999</v>
       </c>
       <c r="K125" t="n">
-        <v>-15.30249110320283</v>
+        <v>-17.02127659574474</v>
       </c>
       <c r="L125" t="n">
         <v>9.297000000000001</v>
@@ -6654,7 +6676,7 @@
         <v>12.50999999999999</v>
       </c>
       <c r="K126" t="n">
-        <v>-8.633093525179797</v>
+        <v>14.63414634146359</v>
       </c>
       <c r="L126" t="n">
         <v>9.288999999999998</v>
@@ -6705,7 +6727,7 @@
         <v>12.54999999999999</v>
       </c>
       <c r="K127" t="n">
-        <v>-10.62271062271066</v>
+        <v>18.6046511627908</v>
       </c>
       <c r="L127" t="n">
         <v>9.304999999999998</v>
@@ -6756,7 +6778,7 @@
         <v>12.65999999999999</v>
       </c>
       <c r="K128" t="n">
-        <v>-14.08450704225354</v>
+        <v>5.15463917525783</v>
       </c>
       <c r="L128" t="n">
         <v>9.309999999999999</v>
@@ -6807,7 +6829,7 @@
         <v>12.71999999999999</v>
       </c>
       <c r="K129" t="n">
-        <v>-11.2727272727273</v>
+        <v>3.030303030302976</v>
       </c>
       <c r="L129" t="n">
         <v>9.308999999999997</v>
@@ -6858,7 +6880,7 @@
         <v>12.76999999999999</v>
       </c>
       <c r="K130" t="n">
-        <v>-1.930501930501891</v>
+        <v>-5.494505494505388</v>
       </c>
       <c r="L130" t="n">
         <v>9.316999999999997</v>
@@ -6909,7 +6931,7 @@
         <v>13.16999999999999</v>
       </c>
       <c r="K131" t="n">
-        <v>6.049822064056944</v>
+        <v>52.29357798165133</v>
       </c>
       <c r="L131" t="n">
         <v>9.351999999999999</v>
@@ -6960,7 +6982,7 @@
         <v>13.32999999999999</v>
       </c>
       <c r="K132" t="n">
-        <v>17.32283464566929</v>
+        <v>19.23076923076918</v>
       </c>
       <c r="L132" t="n">
         <v>9.392999999999997</v>
@@ -7011,7 +7033,7 @@
         <v>13.34999999999999</v>
       </c>
       <c r="K133" t="n">
-        <v>10.83333333333334</v>
+        <v>12.8712871287128</v>
       </c>
       <c r="L133" t="n">
         <v>9.410999999999998</v>
@@ -7062,7 +7084,7 @@
         <v>13.40999999999998</v>
       </c>
       <c r="K134" t="n">
-        <v>15.65217391304356</v>
+        <v>16.32653061224496</v>
       </c>
       <c r="L134" t="n">
         <v>9.417999999999996</v>
@@ -7113,7 +7135,7 @@
         <v>13.55999999999998</v>
       </c>
       <c r="K135" t="n">
-        <v>21.3114754098361</v>
+        <v>21.90476190476187</v>
       </c>
       <c r="L135" t="n">
         <v>9.448999999999996</v>
@@ -7164,7 +7186,7 @@
         <v>13.66999999999998</v>
       </c>
       <c r="K136" t="n">
-        <v>1.834862385321068</v>
+        <v>7.142857142857177</v>
       </c>
       <c r="L136" t="n">
         <v>9.460999999999997</v>
@@ -7215,7 +7237,7 @@
         <v>13.71999999999998</v>
       </c>
       <c r="K137" t="n">
-        <v>9.35960591133006</v>
+        <v>13.20754716981125</v>
       </c>
       <c r="L137" t="n">
         <v>9.463999999999997</v>
@@ -7266,7 +7288,7 @@
         <v>13.76999999999998</v>
       </c>
       <c r="K138" t="n">
-        <v>11.53846153846159</v>
+        <v>23.80952380952387</v>
       </c>
       <c r="L138" t="n">
         <v>9.482999999999997</v>
@@ -7317,7 +7339,7 @@
         <v>13.85999999999998</v>
       </c>
       <c r="K139" t="n">
-        <v>15.20737327188945</v>
+        <v>26.60550458715598</v>
       </c>
       <c r="L139" t="n">
         <v>9.516999999999998</v>
@@ -7368,7 +7390,7 @@
         <v>13.85999999999998</v>
       </c>
       <c r="K140" t="n">
-        <v>17.37089201877936</v>
+        <v>-15.94202898550722</v>
       </c>
       <c r="L140" t="n">
         <v>9.545999999999998</v>
@@ -7419,7 +7441,7 @@
         <v>13.89999999999998</v>
       </c>
       <c r="K141" t="n">
-        <v>9.803921568627533</v>
+        <v>1.754385964912565</v>
       </c>
       <c r="L141" t="n">
         <v>9.530999999999997</v>
@@ -7470,7 +7492,7 @@
         <v>13.89999999999998</v>
       </c>
       <c r="K142" t="n">
-        <v>23.07692307692314</v>
+        <v>5.45454545454569</v>
       </c>
       <c r="L142" t="n">
         <v>9.531999999999996</v>
@@ -7521,7 +7543,7 @@
         <v>13.90999999999998</v>
       </c>
       <c r="K143" t="n">
-        <v>12.34567901234565</v>
+        <v>15.99999999999966</v>
       </c>
       <c r="L143" t="n">
         <v>9.533999999999995</v>
@@ -7572,7 +7594,7 @@
         <v>13.90999999999998</v>
       </c>
       <c r="K144" t="n">
-        <v>9.554140127388465</v>
+        <v>-20</v>
       </c>
       <c r="L144" t="n">
         <v>9.541999999999996</v>
@@ -7623,7 +7645,7 @@
         <v>13.92999999999998</v>
       </c>
       <c r="K145" t="n">
-        <v>14.66666666666663</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L145" t="n">
         <v>9.532999999999996</v>
@@ -7674,7 +7696,7 @@
         <v>13.93999999999998</v>
       </c>
       <c r="K146" t="n">
-        <v>9.090909090909046</v>
+        <v>27.27272727272742</v>
       </c>
       <c r="L146" t="n">
         <v>9.533999999999995</v>
@@ -7725,7 +7747,7 @@
         <v>13.94999999999998</v>
       </c>
       <c r="K147" t="n">
-        <v>7.142857142857134</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L147" t="n">
         <v>9.540999999999995</v>
@@ -7776,7 +7798,7 @@
         <v>13.95999999999998</v>
       </c>
       <c r="K148" t="n">
-        <v>15.38461538461536</v>
+        <v>-80.00000000000036</v>
       </c>
       <c r="L148" t="n">
         <v>9.541999999999996</v>
@@ -7827,7 +7849,7 @@
         <v>13.95999999999998</v>
       </c>
       <c r="K149" t="n">
-        <v>20.96774193548391</v>
+        <v>-80.00000000000036</v>
       </c>
       <c r="L149" t="n">
         <v>9.533999999999995</v>
@@ -7878,7 +7900,7 @@
         <v>13.96999999999998</v>
       </c>
       <c r="K150" t="n">
-        <v>16.66666666666666</v>
+        <v>-71.42857142857216</v>
       </c>
       <c r="L150" t="n">
         <v>9.524999999999995</v>
@@ -7929,7 +7951,7 @@
         <v>14.04999999999998</v>
       </c>
       <c r="K151" t="n">
-        <v>-31.81818181818184</v>
+        <v>-86.66666666666698</v>
       </c>
       <c r="L151" t="n">
         <v>9.511999999999997</v>
@@ -7980,7 +8002,7 @@
         <v>14.04999999999998</v>
       </c>
       <c r="K152" t="n">
-        <v>-16.66666666666663</v>
+        <v>-85.71428571428589</v>
       </c>
       <c r="L152" t="n">
         <v>9.498999999999997</v>
@@ -8031,7 +8053,7 @@
         <v>14.06999999999998</v>
       </c>
       <c r="K153" t="n">
-        <v>-11.11111111111117</v>
+        <v>-62.50000000000042</v>
       </c>
       <c r="L153" t="n">
         <v>9.488999999999995</v>
@@ -8082,7 +8104,7 @@
         <v>14.15999999999998</v>
       </c>
       <c r="K154" t="n">
-        <v>9.333333333333156</v>
+        <v>4.347826086956454</v>
       </c>
       <c r="L154" t="n">
         <v>9.487999999999996</v>
@@ -8133,7 +8155,7 @@
         <v>14.24999999999998</v>
       </c>
       <c r="K155" t="n">
-        <v>-24.6376811594203</v>
+        <v>-22.58064516129051</v>
       </c>
       <c r="L155" t="n">
         <v>9.479999999999997</v>
@@ -8184,7 +8206,7 @@
         <v>14.28999999999998</v>
       </c>
       <c r="K156" t="n">
-        <v>-16.12903225806448</v>
+        <v>-35.29411764705879</v>
       </c>
       <c r="L156" t="n">
         <v>9.468999999999998</v>
@@ -8235,7 +8257,7 @@
         <v>14.28999999999998</v>
       </c>
       <c r="K157" t="n">
-        <v>-8.771929824561239</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L157" t="n">
         <v>9.456999999999997</v>
@@ -8286,7 +8308,7 @@
         <v>14.28999999999998</v>
       </c>
       <c r="K158" t="n">
-        <v>-19.23076923076924</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L158" t="n">
         <v>9.445999999999998</v>
@@ -8337,7 +8359,7 @@
         <v>14.28999999999998</v>
       </c>
       <c r="K159" t="n">
-        <v>-44.186046511628</v>
+        <v>-31.25000000000003</v>
       </c>
       <c r="L159" t="n">
         <v>9.434999999999999</v>
@@ -8388,7 +8410,7 @@
         <v>14.50999999999998</v>
       </c>
       <c r="K160" t="n">
-        <v>-63.07692307692324</v>
+        <v>-52.17391304347841</v>
       </c>
       <c r="L160" t="n">
         <v>9.402999999999997</v>
@@ -8439,7 +8461,7 @@
         <v>14.53999999999998</v>
       </c>
       <c r="K161" t="n">
-        <v>-62.50000000000018</v>
+        <v>-55.10204081632661</v>
       </c>
       <c r="L161" t="n">
         <v>9.375999999999998</v>
@@ -8490,7 +8512,7 @@
         <v>14.56999999999998</v>
       </c>
       <c r="K162" t="n">
-        <v>-64.17910447761217</v>
+        <v>-64.00000000000006</v>
       </c>
       <c r="L162" t="n">
         <v>9.345999999999998</v>
@@ -8541,7 +8563,7 @@
         <v>14.77999999999998</v>
       </c>
       <c r="K163" t="n">
-        <v>-24.13793103448267</v>
+        <v>-32.25806451612886</v>
       </c>
       <c r="L163" t="n">
         <v>9.334999999999997</v>
@@ -8592,7 +8614,7 @@
         <v>14.81999999999998</v>
       </c>
       <c r="K164" t="n">
-        <v>-18.68131868131871</v>
+        <v>-12.28070175438601</v>
       </c>
       <c r="L164" t="n">
         <v>9.318999999999999</v>
@@ -8643,7 +8665,7 @@
         <v>15.05999999999998</v>
       </c>
       <c r="K165" t="n">
-        <v>-34.51327433628316</v>
+        <v>-35.06493506493503</v>
       </c>
       <c r="L165" t="n">
         <v>9.287999999999998</v>
@@ -8694,7 +8716,7 @@
         <v>15.31999999999998</v>
       </c>
       <c r="K166" t="n">
-        <v>-8.695652173913004</v>
+        <v>-0.9708737864077469</v>
       </c>
       <c r="L166" t="n">
         <v>9.286999999999997</v>
@@ -8745,7 +8767,7 @@
         <v>15.33999999999998</v>
       </c>
       <c r="K167" t="n">
-        <v>-7.913669064748177</v>
+        <v>0.952380952380933</v>
       </c>
       <c r="L167" t="n">
         <v>9.287999999999997</v>
@@ -8796,7 +8818,7 @@
         <v>15.43999999999998</v>
       </c>
       <c r="K168" t="n">
-        <v>0</v>
+        <v>9.56521739130431</v>
       </c>
       <c r="L168" t="n">
         <v>9.298999999999996</v>
@@ -8847,7 +8869,7 @@
         <v>15.44999999999998</v>
       </c>
       <c r="K169" t="n">
-        <v>-0.6711409395973027</v>
+        <v>34.04255319148947</v>
       </c>
       <c r="L169" t="n">
         <v>9.308999999999996</v>
@@ -8898,7 +8920,7 @@
         <v>15.44999999999998</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>38.46153846153849</v>
       </c>
       <c r="L170" t="n">
         <v>9.340999999999998</v>
@@ -8949,7 +8971,7 @@
         <v>15.44999999999998</v>
       </c>
       <c r="K171" t="n">
-        <v>5.714285714285732</v>
+        <v>43.18181818181841</v>
       </c>
       <c r="L171" t="n">
         <v>9.375999999999996</v>
@@ -9000,7 +9022,7 @@
         <v>15.44999999999998</v>
       </c>
       <c r="K172" t="n">
-        <v>5.714285714285732</v>
+        <v>25.37313432835834</v>
       </c>
       <c r="L172" t="n">
         <v>9.413999999999996</v>
@@ -9051,7 +9073,7 @@
         <v>15.44999999999998</v>
       </c>
       <c r="K173" t="n">
-        <v>4.347826086956567</v>
+        <v>20.63492063492085</v>
       </c>
       <c r="L173" t="n">
         <v>9.430999999999996</v>
@@ -9102,7 +9124,7 @@
         <v>15.44999999999998</v>
       </c>
       <c r="K174" t="n">
-        <v>-2.325581395348792</v>
+        <v>94.87179487179496</v>
       </c>
       <c r="L174" t="n">
         <v>9.443999999999996</v>
@@ -9153,7 +9175,7 @@
         <v>15.55999999999998</v>
       </c>
       <c r="K175" t="n">
-        <v>12.97709923664125</v>
+        <v>91.66666666666679</v>
       </c>
       <c r="L175" t="n">
         <v>9.491999999999996</v>
@@ -9204,7 +9226,7 @@
         <v>15.55999999999998</v>
       </c>
       <c r="K176" t="n">
-        <v>16.5354330708661</v>
+        <v>90.90909090909105</v>
       </c>
       <c r="L176" t="n">
         <v>9.513999999999996</v>
@@ -9255,7 +9277,7 @@
         <v>15.58999999999998</v>
       </c>
       <c r="K177" t="n">
-        <v>18.46153846153849</v>
+        <v>86.66666666666698</v>
       </c>
       <c r="L177" t="n">
         <v>9.536999999999995</v>
@@ -9306,7 +9328,7 @@
         <v>15.74999999999998</v>
       </c>
       <c r="K178" t="n">
-        <v>27.39726027397264</v>
+        <v>100</v>
       </c>
       <c r="L178" t="n">
         <v>9.565999999999995</v>
@@ -9357,7 +9379,7 @@
         <v>15.83999999999998</v>
       </c>
       <c r="K179" t="n">
-        <v>31.61290322580649</v>
+        <v>100</v>
       </c>
       <c r="L179" t="n">
         <v>9.604999999999995</v>
@@ -9408,7 +9430,7 @@
         <v>16.09999999999998</v>
       </c>
       <c r="K180" t="n">
-        <v>28.30188679245293</v>
+        <v>20.00000000000011</v>
       </c>
       <c r="L180" t="n">
         <v>9.617999999999995</v>
@@ -9459,7 +9481,7 @@
         <v>16.16999999999998</v>
       </c>
       <c r="K181" t="n">
-        <v>33.74233128834351</v>
+        <v>27.77777777777766</v>
       </c>
       <c r="L181" t="n">
         <v>9.637999999999995</v>
@@ -9510,7 +9532,7 @@
         <v>16.29999999999998</v>
       </c>
       <c r="K182" t="n">
-        <v>41.04046242774571</v>
+        <v>38.82352941176457</v>
       </c>
       <c r="L182" t="n">
         <v>9.670999999999996</v>
@@ -9561,7 +9583,7 @@
         <v>16.30999999999998</v>
       </c>
       <c r="K183" t="n">
-        <v>33.33333333333337</v>
+        <v>39.53488372093016</v>
       </c>
       <c r="L183" t="n">
         <v>9.704999999999995</v>
@@ -9612,7 +9634,7 @@
         <v>16.34999999999998</v>
       </c>
       <c r="K184" t="n">
-        <v>33.33333333333348</v>
+        <v>34.17721518987355</v>
       </c>
       <c r="L184" t="n">
         <v>9.742999999999995</v>
@@ -9663,7 +9685,7 @@
         <v>16.56999999999998</v>
       </c>
       <c r="K185" t="n">
-        <v>64.2384105960265</v>
+        <v>48.51485148514855</v>
       </c>
       <c r="L185" t="n">
         <v>9.791999999999994</v>
@@ -9714,7 +9736,7 @@
         <v>16.66999999999998</v>
       </c>
       <c r="K186" t="n">
-        <v>59.99999999999992</v>
+        <v>51.85185185185173</v>
       </c>
       <c r="L186" t="n">
         <v>9.850999999999996</v>
@@ -9765,7 +9787,7 @@
         <v>16.76999999999998</v>
       </c>
       <c r="K187" t="n">
-        <v>62.23776223776222</v>
+        <v>49.01960784313719</v>
       </c>
       <c r="L187" t="n">
         <v>9.916999999999994</v>
@@ -9816,7 +9838,7 @@
         <v>16.76999999999998</v>
       </c>
       <c r="K188" t="n">
-        <v>59.3984962406015</v>
+        <v>44.08602150537629</v>
       </c>
       <c r="L188" t="n">
         <v>9.966999999999995</v>
@@ -9867,7 +9889,7 @@
         <v>16.96999999999998</v>
       </c>
       <c r="K189" t="n">
-        <v>39.47368421052617</v>
+        <v>54.02298850574672</v>
       </c>
       <c r="L189" t="n">
         <v>9.987999999999994</v>
@@ -9918,7 +9940,7 @@
         <v>17.06999999999999</v>
       </c>
       <c r="K190" t="n">
-        <v>43.20987654320966</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L190" t="n">
         <v>10.04499999999999</v>
@@ -9969,7 +9991,7 @@
         <v>17.26999999999999</v>
       </c>
       <c r="K191" t="n">
-        <v>49.45054945054922</v>
+        <v>58.76288659793781</v>
       </c>
       <c r="L191" t="n">
         <v>10.11499999999999</v>
@@ -10020,7 +10042,7 @@
         <v>17.26999999999999</v>
       </c>
       <c r="K192" t="n">
-        <v>49.45054945054922</v>
+        <v>58.3333333333329</v>
       </c>
       <c r="L192" t="n">
         <v>10.172</v>
@@ -10071,7 +10093,7 @@
         <v>17.36999999999999</v>
       </c>
       <c r="K193" t="n">
-        <v>41.66666666666647</v>
+        <v>41.17647058823488</v>
       </c>
       <c r="L193" t="n">
         <v>10.21799999999999</v>
@@ -10122,7 +10144,7 @@
         <v>17.36999999999999</v>
       </c>
       <c r="K194" t="n">
-        <v>41.66666666666647</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L194" t="n">
         <v>10.25999999999999</v>
@@ -10173,7 +10195,7 @@
         <v>17.46999999999999</v>
       </c>
       <c r="K195" t="n">
-        <v>30.89005235602073</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
         <v>10.27</v>
@@ -10224,7 +10246,7 @@
         <v>17.81999999999999</v>
       </c>
       <c r="K196" t="n">
-        <v>10.61946902654862</v>
+        <v>-42.85714285714249</v>
       </c>
       <c r="L196" t="n">
         <v>10.235</v>
@@ -10275,7 +10297,7 @@
         <v>17.86999999999999</v>
       </c>
       <c r="K197" t="n">
-        <v>11.40350877192975</v>
+        <v>-36.363636363636</v>
       </c>
       <c r="L197" t="n">
         <v>10.195</v>
@@ -10326,7 +10348,7 @@
         <v>17.96999999999999</v>
       </c>
       <c r="K198" t="n">
-        <v>9.009009009008931</v>
+        <v>-9.999999999999893</v>
       </c>
       <c r="L198" t="n">
         <v>10.165</v>
@@ -10377,7 +10399,7 @@
         <v>17.96999999999999</v>
       </c>
       <c r="K199" t="n">
-        <v>5.164319248826237</v>
+        <v>-22.222222222222</v>
       </c>
       <c r="L199" t="n">
         <v>10.155</v>
@@ -10428,7 +10450,7 @@
         <v>18.06999999999999</v>
       </c>
       <c r="K200" t="n">
-        <v>23.85786802030435</v>
+        <v>-37.49999999999989</v>
       </c>
       <c r="L200" t="n">
         <v>10.145</v>
@@ -10479,7 +10501,7 @@
         <v>18.16999999999999</v>
       </c>
       <c r="K201" t="n">
-        <v>14.99999999999993</v>
+        <v>-44.4444444444442</v>
       </c>
       <c r="L201" t="n">
         <v>10.105</v>
@@ -10530,7 +10552,7 @@
         <v>18.22</v>
       </c>
       <c r="K202" t="n">
-        <v>6.249999999999919</v>
+        <v>-41.17647058823522</v>
       </c>
       <c r="L202" t="n">
         <v>10.06</v>
@@ -10581,7 +10603,7 @@
         <v>18.23999999999999</v>
       </c>
       <c r="K203" t="n">
-        <v>4.663212435233119</v>
+        <v>-42.5287356321838</v>
       </c>
       <c r="L203" t="n">
         <v>10.02299999999999</v>
@@ -10632,7 +10654,7 @@
         <v>18.38</v>
       </c>
       <c r="K204" t="n">
-        <v>-4.43349753694586</v>
+        <v>-45.05494505494489</v>
       </c>
       <c r="L204" t="n">
         <v>9.971999999999996</v>
@@ -10683,7 +10705,7 @@
         <v>18.41</v>
       </c>
       <c r="K205" t="n">
-        <v>-18.47826086956503</v>
+        <v>-15.25423728813548</v>
       </c>
       <c r="L205" t="n">
         <v>9.927999999999995</v>
@@ -10734,7 +10756,7 @@
         <v>18.59999999999999</v>
       </c>
       <c r="K206" t="n">
-        <v>-12.95336787564758</v>
+        <v>6.849315068493</v>
       </c>
       <c r="L206" t="n">
         <v>9.937999999999997</v>
@@ -10785,7 +10807,7 @@
         <v>18.70999999999999</v>
       </c>
       <c r="K207" t="n">
-        <v>-23.71134020618547</v>
+        <v>-21.62162162162159</v>
       </c>
       <c r="L207" t="n">
         <v>9.931999999999997</v>
@@ -10836,7 +10858,7 @@
         <v>18.84999999999999</v>
       </c>
       <c r="K208" t="n">
-        <v>-15.38461538461531</v>
+        <v>-2.272727272727217</v>
       </c>
       <c r="L208" t="n">
         <v>9.929999999999996</v>
@@ -10887,7 +10909,7 @@
         <v>18.93999999999999</v>
       </c>
       <c r="K209" t="n">
-        <v>-10.65989847715726</v>
+        <v>-24.13793103448262</v>
       </c>
       <c r="L209" t="n">
         <v>9.918999999999997</v>
@@ -10938,7 +10960,7 @@
         <v>18.95999999999999</v>
       </c>
       <c r="K210" t="n">
-        <v>-17.46031746031739</v>
+        <v>-16.45569620253176</v>
       </c>
       <c r="L210" t="n">
         <v>9.895999999999997</v>
@@ -10989,7 +11011,7 @@
         <v>19.09</v>
       </c>
       <c r="K211" t="n">
-        <v>-21.97802197802191</v>
+        <v>5.747126436781684</v>
       </c>
       <c r="L211" t="n">
         <v>9.895999999999997</v>
@@ -11040,7 +11062,7 @@
         <v>19.09</v>
       </c>
       <c r="K212" t="n">
-        <v>-21.97802197802191</v>
+        <v>8.235294117647078</v>
       </c>
       <c r="L212" t="n">
         <v>9.900999999999998</v>
@@ -11091,7 +11113,7 @@
         <v>19.29</v>
       </c>
       <c r="K213" t="n">
-        <v>-5.208333333333393</v>
+        <v>45.05494505494506</v>
       </c>
       <c r="L213" t="n">
         <v>9.927999999999997</v>
@@ -11142,7 +11164,7 @@
         <v>19.39</v>
       </c>
       <c r="K214" t="n">
-        <v>0</v>
+        <v>55.1020408163266</v>
       </c>
       <c r="L214" t="n">
         <v>9.978999999999996</v>
@@ -11193,7 +11215,7 @@
         <v>19.48999999999999</v>
       </c>
       <c r="K215" t="n">
-        <v>9.900990099009938</v>
+        <v>50.56179775280908</v>
       </c>
       <c r="L215" t="n">
         <v>10.043</v>
@@ -11244,7 +11266,7 @@
         <v>19.69</v>
       </c>
       <c r="K216" t="n">
-        <v>18.71657754010689</v>
+        <v>36.73469387755081</v>
       </c>
       <c r="L216" t="n">
         <v>10.068</v>
@@ -11295,7 +11317,7 @@
         <v>19.79</v>
       </c>
       <c r="K217" t="n">
-        <v>20.8333333333333</v>
+        <v>34.04255319148922</v>
       </c>
       <c r="L217" t="n">
         <v>10.114</v>
@@ -11346,7 +11368,7 @@
         <v>19.79</v>
       </c>
       <c r="K218" t="n">
-        <v>16.48351648351646</v>
+        <v>48.2352941176468</v>
       </c>
       <c r="L218" t="n">
         <v>10.146</v>
@@ -11397,7 +11419,7 @@
         <v>19.89</v>
       </c>
       <c r="K219" t="n">
-        <v>20.83333333333326</v>
+        <v>56.98924731182766</v>
       </c>
       <c r="L219" t="n">
         <v>10.197</v>
@@ -11448,7 +11470,7 @@
         <v>20.09</v>
       </c>
       <c r="K220" t="n">
-        <v>4.950495049504908</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L220" t="n">
         <v>10.23</v>
@@ -11499,7 +11521,7 @@
         <v>20.19</v>
       </c>
       <c r="K221" t="n">
-        <v>4.950495049504908</v>
+        <v>9.090909090908989</v>
       </c>
       <c r="L221" t="n">
         <v>10.23999999999999</v>
@@ -11550,7 +11572,7 @@
         <v>20.39000000000001</v>
       </c>
       <c r="K222" t="n">
-        <v>16.12903225806449</v>
+        <v>9.09090909090912</v>
       </c>
       <c r="L222" t="n">
         <v>10.26999999999999</v>
@@ -11601,7 +11623,7 @@
         <v>20.49000000000001</v>
       </c>
       <c r="K223" t="n">
-        <v>20.88888888888879</v>
+        <v>9.090909090908958</v>
       </c>
       <c r="L223" t="n">
         <v>10.29</v>
@@ -11652,7 +11674,7 @@
         <v>20.59000000000001</v>
       </c>
       <c r="K224" t="n">
-        <v>23.07692307692299</v>
+        <v>-9.090909090908928</v>
       </c>
       <c r="L224" t="n">
         <v>10.29</v>
@@ -11703,7 +11725,7 @@
         <v>20.59000000000001</v>
       </c>
       <c r="K225" t="n">
-        <v>24.77064220183475</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L225" t="n">
         <v>10.27999999999999</v>
@@ -11754,7 +11776,7 @@
         <v>20.69000000000001</v>
       </c>
       <c r="K226" t="n">
-        <v>11.96172248803818</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L226" t="n">
         <v>10.27999999999999</v>
@@ -11805,7 +11827,7 @@
         <v>20.69000000000001</v>
       </c>
       <c r="K227" t="n">
-        <v>18.18181818181798</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L227" t="n">
         <v>10.26999999999999</v>
@@ -11856,7 +11878,7 @@
         <v>20.89000000000001</v>
       </c>
       <c r="K228" t="n">
-        <v>0.9803921568627161</v>
+        <v>-39.99999999999961</v>
       </c>
       <c r="L228" t="n">
         <v>10.23999999999999</v>
@@ -11907,7 +11929,7 @@
         <v>20.89000000000001</v>
       </c>
       <c r="K229" t="n">
-        <v>5.641025641025562</v>
+        <v>-24.99999999999967</v>
       </c>
       <c r="L229" t="n">
         <v>10.19999999999999</v>
@@ -11958,7 +11980,7 @@
         <v>20.99000000000001</v>
       </c>
       <c r="K230" t="n">
-        <v>11.33004926108368</v>
+        <v>0</v>
       </c>
       <c r="L230" t="n">
         <v>10.18999999999999</v>
@@ -12009,7 +12031,7 @@
         <v>20.99000000000001</v>
       </c>
       <c r="K231" t="n">
-        <v>5.263157894736787</v>
+        <v>-33.33333333333343</v>
       </c>
       <c r="L231" t="n">
         <v>10.18999999999999</v>
@@ -12060,7 +12082,7 @@
         <v>21.18000000000001</v>
       </c>
       <c r="K232" t="n">
-        <v>-4.306220095693751</v>
+        <v>-71.01449275362344</v>
       </c>
       <c r="L232" t="n">
         <v>10.15099999999999</v>
@@ -12111,7 +12133,7 @@
         <v>21.19</v>
       </c>
       <c r="K233" t="n">
-        <v>-15.78947368421039</v>
+        <v>-66.66666666666737</v>
       </c>
       <c r="L233" t="n">
         <v>10.10099999999999</v>
@@ -12162,7 +12184,7 @@
         <v>21.29000000000001</v>
       </c>
       <c r="K234" t="n">
-        <v>-15.78947368421049</v>
+        <v>-42.85714285714322</v>
       </c>
       <c r="L234" t="n">
         <v>10.07099999999999</v>
@@ -12213,7 +12235,7 @@
         <v>21.38000000000001</v>
       </c>
       <c r="K235" t="n">
-        <v>-25.92592592592579</v>
+        <v>-42.02898550724661</v>
       </c>
       <c r="L235" t="n">
         <v>10.03199999999999</v>
@@ -12264,7 +12286,7 @@
         <v>21.41</v>
       </c>
       <c r="K236" t="n">
-        <v>-15.11627906976738</v>
+        <v>-36.11111111111149</v>
       </c>
       <c r="L236" t="n">
         <v>10.00599999999999</v>
@@ -12315,7 +12337,7 @@
         <v>21.49</v>
       </c>
       <c r="K237" t="n">
-        <v>-25.8823529411765</v>
+        <v>-23.33333333333379</v>
       </c>
       <c r="L237" t="n">
         <v>9.971999999999992</v>
@@ -12366,7 +12388,7 @@
         <v>21.56</v>
       </c>
       <c r="K238" t="n">
-        <v>-28.81355932203394</v>
+        <v>-31.3432835820901</v>
       </c>
       <c r="L238" t="n">
         <v>9.950999999999993</v>
@@ -12417,7 +12439,7 @@
         <v>21.62</v>
       </c>
       <c r="K239" t="n">
-        <v>-38.72832369942195</v>
+        <v>-58.73015873015937</v>
       </c>
       <c r="L239" t="n">
         <v>9.923999999999994</v>
@@ -12468,7 +12490,7 @@
         <v>21.67</v>
       </c>
       <c r="K240" t="n">
-        <v>-32.9113924050633</v>
+        <v>-61.7647058823536</v>
       </c>
       <c r="L240" t="n">
         <v>9.881999999999994</v>
@@ -12519,7 +12541,7 @@
         <v>21.68</v>
       </c>
       <c r="K241" t="n">
-        <v>-28.85906040268464</v>
+        <v>-48.00000000000072</v>
       </c>
       <c r="L241" t="n">
         <v>9.838999999999995</v>
@@ -12570,7 +12592,7 @@
         <v>21.71</v>
       </c>
       <c r="K242" t="n">
-        <v>-45.45454545454579</v>
+        <v>-38.46153846153896</v>
       </c>
       <c r="L242" t="n">
         <v>9.817999999999994</v>
@@ -12621,7 +12643,7 @@
         <v>21.85</v>
       </c>
       <c r="K243" t="n">
-        <v>-41.17647058823557</v>
+        <v>-28.57142857142884</v>
       </c>
       <c r="L243" t="n">
         <v>9.811999999999994</v>
@@ -12672,7 +12694,7 @@
         <v>21.87</v>
       </c>
       <c r="K244" t="n">
-        <v>-37.50000000000031</v>
+        <v>-18.36734693877567</v>
       </c>
       <c r="L244" t="n">
         <v>9.793999999999993</v>
@@ -12723,7 +12745,7 @@
         <v>21.87</v>
       </c>
       <c r="K245" t="n">
-        <v>-37.50000000000031</v>
+        <v>-26.08695652173911</v>
       </c>
       <c r="L245" t="n">
         <v>9.784999999999993</v>
@@ -12774,7 +12796,7 @@
         <v>21.88</v>
       </c>
       <c r="K246" t="n">
-        <v>-32.77310924369763</v>
+        <v>-12.82051282051253</v>
       </c>
       <c r="L246" t="n">
         <v>9.771999999999995</v>
@@ -12825,7 +12847,7 @@
         <v>21.91</v>
       </c>
       <c r="K247" t="n">
-        <v>-29.50819672131163</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L247" t="n">
         <v>9.769999999999994</v>
@@ -12876,7 +12898,7 @@
         <v>22</v>
       </c>
       <c r="K248" t="n">
-        <v>-22.52252252252268</v>
+        <v>5.263157894736695</v>
       </c>
       <c r="L248" t="n">
         <v>9.765999999999995</v>
@@ -12927,7 +12949,7 @@
         <v>22.04</v>
       </c>
       <c r="K249" t="n">
-        <v>-18.2608695652176</v>
+        <v>29.7297297297295</v>
       </c>
       <c r="L249" t="n">
         <v>9.771999999999993</v>
@@ -12978,7 +13000,7 @@
         <v>22.05</v>
       </c>
       <c r="K250" t="n">
-        <v>-30.18867924528318</v>
+        <v>29.72972972972921</v>
       </c>
       <c r="L250" t="n">
         <v>9.781999999999993</v>
@@ -13029,7 +13051,7 @@
         <v>22.06</v>
       </c>
       <c r="K251" t="n">
-        <v>-28.97196261682266</v>
+        <v>25.71428571428557</v>
       </c>
       <c r="L251" t="n">
         <v>9.793999999999993</v>
@@ -13080,7 +13102,7 @@
         <v>22.08</v>
       </c>
       <c r="K252" t="n">
-        <v>-15.55555555555571</v>
+        <v>-30.43478260869572</v>
       </c>
       <c r="L252" t="n">
         <v>9.800999999999991</v>
@@ -13131,7 +13153,7 @@
         <v>22.2</v>
       </c>
       <c r="K253" t="n">
-        <v>-24.7524752475248</v>
+        <v>-51.5151515151512</v>
       </c>
       <c r="L253" t="n">
         <v>9.781999999999993</v>
@@ -13182,7 +13204,7 @@
         <v>22.22</v>
       </c>
       <c r="K254" t="n">
-        <v>-39.78494623655922</v>
+        <v>-54.28571428571393</v>
       </c>
       <c r="L254" t="n">
         <v>9.762999999999991</v>
@@ -13233,7 +13255,7 @@
         <v>22.28</v>
       </c>
       <c r="K255" t="n">
-        <v>-24.44444444444465</v>
+        <v>-30.00000000000036</v>
       </c>
       <c r="L255" t="n">
         <v>9.749999999999991</v>
@@ -13284,7 +13306,7 @@
         <v>22.4</v>
       </c>
       <c r="K256" t="n">
-        <v>-37.37373737373748</v>
+        <v>-55.10204081632701</v>
       </c>
       <c r="L256" t="n">
         <v>9.72599999999999</v>
@@ -13335,7 +13357,7 @@
         <v>22.44</v>
       </c>
       <c r="K257" t="n">
-        <v>-26.31578947368433</v>
+        <v>-31.81818181818237</v>
       </c>
       <c r="L257" t="n">
         <v>9.702999999999991</v>
@@ -13386,7 +13408,7 @@
         <v>22.66999999999999</v>
       </c>
       <c r="K258" t="n">
-        <v>-36.93693693693704</v>
+        <v>-65.07936507936566</v>
       </c>
       <c r="L258" t="n">
         <v>9.66599999999999</v>
@@ -13437,7 +13459,7 @@
         <v>22.85999999999999</v>
       </c>
       <c r="K259" t="n">
-        <v>-12.90322580645172</v>
+        <v>-25.9259259259262</v>
       </c>
       <c r="L259" t="n">
         <v>9.643999999999991</v>
@@ -13488,7 +13510,7 @@
         <v>22.95999999999999</v>
       </c>
       <c r="K260" t="n">
-        <v>-0.7751937984496007</v>
+        <v>-13.33333333333337</v>
       </c>
       <c r="L260" t="n">
         <v>9.632999999999992</v>
@@ -13539,7 +13561,7 @@
         <v>22.97999999999999</v>
       </c>
       <c r="K261" t="n">
-        <v>-1.538461538461513</v>
+        <v>-13.33333333333337</v>
       </c>
       <c r="L261" t="n">
         <v>9.618999999999991</v>
@@ -13590,7 +13612,7 @@
         <v>22.98999999999999</v>
       </c>
       <c r="K262" t="n">
-        <v>-3.124999999999948</v>
+        <v>1.265822784810112</v>
       </c>
       <c r="L262" t="n">
         <v>9.607999999999992</v>
@@ -13641,7 +13663,7 @@
         <v>23.09999999999999</v>
       </c>
       <c r="K263" t="n">
-        <v>-23.20000000000007</v>
+        <v>-9.090909090909182</v>
       </c>
       <c r="L263" t="n">
         <v>9.59799999999999</v>
@@ -13692,7 +13714,7 @@
         <v>23.23999999999999</v>
       </c>
       <c r="K264" t="n">
-        <v>-9.489051094890611</v>
+        <v>0</v>
       </c>
       <c r="L264" t="n">
         <v>9.60399999999999</v>
@@ -13743,7 +13765,7 @@
         <v>23.38</v>
       </c>
       <c r="K265" t="n">
-        <v>0.6622516556291274</v>
+        <v>26.53061224489802</v>
       </c>
       <c r="L265" t="n">
         <v>9.617999999999991</v>
@@ -13794,7 +13816,7 @@
         <v>23.43</v>
       </c>
       <c r="K266" t="n">
-        <v>-1.935483870967823</v>
+        <v>17.17171717171719</v>
       </c>
       <c r="L266" t="n">
         <v>9.63899999999999</v>
@@ -13845,7 +13867,7 @@
         <v>23.52</v>
       </c>
       <c r="K267" t="n">
-        <v>1.86335403726705</v>
+        <v>57.64705882352913</v>
       </c>
       <c r="L267" t="n">
         <v>9.66499999999999</v>
@@ -13896,7 +13918,7 @@
         <v>23.52</v>
       </c>
       <c r="K268" t="n">
-        <v>7.89473684210525</v>
+        <v>45.45454545454503</v>
       </c>
       <c r="L268" t="n">
         <v>9.713999999999992</v>
@@ -13947,7 +13969,7 @@
         <v>23.52</v>
       </c>
       <c r="K269" t="n">
-        <v>5.405405405405435</v>
+        <v>35.71428571428545</v>
       </c>
       <c r="L269" t="n">
         <v>9.743999999999991</v>
@@ -13998,7 +14020,7 @@
         <v>23.54</v>
       </c>
       <c r="K270" t="n">
-        <v>4.697986577181255</v>
+        <v>35.71428571428545</v>
       </c>
       <c r="L270" t="n">
         <v>9.76199999999999</v>
@@ -14049,7 +14071,7 @@
         <v>23.62</v>
       </c>
       <c r="K271" t="n">
-        <v>-1.282051282051259</v>
+        <v>17.4603174603173</v>
       </c>
       <c r="L271" t="n">
         <v>9.77399999999999</v>
@@ -14100,7 +14122,7 @@
         <v>23.79</v>
       </c>
       <c r="K272" t="n">
-        <v>-9.94152046783627</v>
+        <v>7.246376811593998</v>
       </c>
       <c r="L272" t="n">
         <v>9.76799999999999</v>
@@ -14151,7 +14173,7 @@
         <v>23.8</v>
       </c>
       <c r="K273" t="n">
-        <v>-2.500000000000067</v>
+        <v>-14.28571428571424</v>
       </c>
       <c r="L273" t="n">
         <v>9.77399999999999</v>
@@ -14202,7 +14224,7 @@
         <v>23.93</v>
       </c>
       <c r="K274" t="n">
-        <v>6.432748538011674</v>
+        <v>-16.36363636363621</v>
       </c>
       <c r="L274" t="n">
         <v>9.778999999999989</v>
@@ -14253,7 +14275,7 @@
         <v>23.99</v>
       </c>
       <c r="K275" t="n">
-        <v>6.432748538011763</v>
+        <v>3.571428571428775</v>
       </c>
       <c r="L275" t="n">
         <v>9.775999999999989</v>
@@ -14304,7 +14326,7 @@
         <v>24.03</v>
       </c>
       <c r="K276" t="n">
-        <v>11.65644171779136</v>
+        <v>-21.56862745098006</v>
       </c>
       <c r="L276" t="n">
         <v>9.77399999999999</v>
@@ -14355,7 +14377,7 @@
         <v>24.18</v>
       </c>
       <c r="K277" t="n">
-        <v>0</v>
+        <v>-39.39393939393914</v>
       </c>
       <c r="L277" t="n">
         <v>9.747999999999989</v>
@@ -14406,7 +14428,7 @@
         <v>24.31</v>
       </c>
       <c r="K278" t="n">
-        <v>21.95121951219498</v>
+        <v>-16.45569620253139</v>
       </c>
       <c r="L278" t="n">
         <v>9.734999999999989</v>
@@ -14457,7 +14479,7 @@
         <v>24.45</v>
       </c>
       <c r="K279" t="n">
-        <v>1.886792452830136</v>
+        <v>-27.47252747252725</v>
       </c>
       <c r="L279" t="n">
         <v>9.707999999999988</v>
@@ -14508,7 +14530,7 @@
         <v>24.59</v>
       </c>
       <c r="K280" t="n">
-        <v>-12.88343558282195</v>
+        <v>-31.95876288659761</v>
       </c>
       <c r="L280" t="n">
         <v>9.668999999999988</v>
@@ -14559,7 +14581,7 @@
         <v>24.88</v>
       </c>
       <c r="K281" t="n">
-        <v>5.263157894736798</v>
+        <v>13.76146788990825</v>
       </c>
       <c r="L281" t="n">
         <v>9.666999999999989</v>
@@ -14610,7 +14632,7 @@
         <v>24.95</v>
       </c>
       <c r="K282" t="n">
-        <v>1.02040816326528</v>
+        <v>6.086956521739125</v>
       </c>
       <c r="L282" t="n">
         <v>9.674999999999988</v>
@@ -14661,7 +14683,7 @@
         <v>25.11</v>
       </c>
       <c r="K283" t="n">
-        <v>-1.492537313432886</v>
+        <v>-18.64406779661017</v>
       </c>
       <c r="L283" t="n">
         <v>9.665999999999988</v>
@@ -14712,7 +14734,7 @@
         <v>25.19</v>
       </c>
       <c r="K284" t="n">
-        <v>-4.615384615384585</v>
+        <v>-16.66666666666671</v>
       </c>
       <c r="L284" t="n">
         <v>9.651999999999989</v>
@@ -14763,7 +14785,7 @@
         <v>25.28</v>
       </c>
       <c r="K285" t="n">
-        <v>-16.84210526315783</v>
+        <v>-19.99999999999994</v>
       </c>
       <c r="L285" t="n">
         <v>9.622999999999989</v>
@@ -14814,7 +14836,7 @@
         <v>25.3</v>
       </c>
       <c r="K286" t="n">
-        <v>-13.36898395721919</v>
+        <v>-7.14285714285712</v>
       </c>
       <c r="L286" t="n">
         <v>9.599999999999989</v>
@@ -14865,7 +14887,7 @@
         <v>25.3</v>
       </c>
       <c r="K287" t="n">
-        <v>-19.10112359550552</v>
+        <v>-21.21212121212125</v>
       </c>
       <c r="L287" t="n">
         <v>9.591999999999988</v>
@@ -14916,7 +14938,7 @@
         <v>25.3</v>
       </c>
       <c r="K288" t="n">
-        <v>-19.10112359550552</v>
+        <v>-8.235294117647078</v>
       </c>
       <c r="L288" t="n">
         <v>9.570999999999989</v>
@@ -14967,7 +14989,7 @@
         <v>25.52</v>
       </c>
       <c r="K289" t="n">
-        <v>-5.99999999999994</v>
+        <v>31.18279569892465</v>
       </c>
       <c r="L289" t="n">
         <v>9.58599999999999</v>
@@ -15018,7 +15040,7 @@
         <v>25.52</v>
       </c>
       <c r="K290" t="n">
-        <v>-5.050505050505014</v>
+        <v>0</v>
       </c>
       <c r="L290" t="n">
         <v>9.61499999999999</v>
@@ -15069,7 +15091,7 @@
         <v>25.59</v>
       </c>
       <c r="K291" t="n">
-        <v>2.538071065989876</v>
+        <v>21.87500000000007</v>
       </c>
       <c r="L291" t="n">
         <v>9.621999999999989</v>
@@ -15120,7 +15142,7 @@
         <v>25.62</v>
       </c>
       <c r="K292" t="n">
-        <v>13.66120218579231</v>
+        <v>64.70588235294099</v>
       </c>
       <c r="L292" t="n">
         <v>9.638999999999987</v>
@@ -15171,7 +15193,7 @@
         <v>25.64</v>
       </c>
       <c r="K293" t="n">
-        <v>14.13043478260863</v>
+        <v>60</v>
       </c>
       <c r="L293" t="n">
         <v>9.673999999999989</v>
@@ -15222,7 +15244,7 @@
         <v>25.64</v>
       </c>
       <c r="K294" t="n">
-        <v>7.602339181286472</v>
+        <v>100</v>
       </c>
       <c r="L294" t="n">
         <v>9.70099999999999</v>
@@ -15273,7 +15295,7 @@
         <v>25.65000000000001</v>
       </c>
       <c r="K295" t="n">
-        <v>4.819277108433728</v>
+        <v>100</v>
       </c>
       <c r="L295" t="n">
         <v>9.737999999999989</v>
@@ -15324,7 +15346,7 @@
         <v>25.65000000000001</v>
       </c>
       <c r="K296" t="n">
-        <v>7.407407407407448</v>
+        <v>100</v>
       </c>
       <c r="L296" t="n">
         <v>9.772999999999987</v>
@@ -15375,7 +15397,7 @@
         <v>25.71000000000001</v>
       </c>
       <c r="K297" t="n">
-        <v>13.72549019607841</v>
+        <v>70.73170731707276</v>
       </c>
       <c r="L297" t="n">
         <v>9.801999999999987</v>
@@ -15426,7 +15448,7 @@
         <v>25.71000000000001</v>
       </c>
       <c r="K298" t="n">
-        <v>5.714285714285696</v>
+        <v>36.84210526315711</v>
       </c>
       <c r="L298" t="n">
         <v>9.830999999999985</v>
@@ -15477,7 +15499,7 @@
         <v>25.71000000000001</v>
       </c>
       <c r="K299" t="n">
-        <v>17.46031746031744</v>
+        <v>36.84210526315711</v>
       </c>
       <c r="L299" t="n">
         <v>9.837999999999985</v>
@@ -15528,7 +15550,7 @@
         <v>25.71000000000001</v>
       </c>
       <c r="K300" t="n">
-        <v>32.14285714285696</v>
+        <v>0</v>
       </c>
       <c r="L300" t="n">
         <v>9.844999999999985</v>
@@ -15579,7 +15601,7 @@
         <v>25.71000000000001</v>
       </c>
       <c r="K301" t="n">
-        <v>8.433734939759017</v>
+        <v>-33.33333333333136</v>
       </c>
       <c r="L301" t="n">
         <v>9.844999999999985</v>
@@ -15630,7 +15652,7 @@
         <v>25.71000000000001</v>
       </c>
       <c r="K302" t="n">
-        <v>18.4210526315789</v>
+        <v>-71.42857142856599</v>
       </c>
       <c r="L302" t="n">
         <v>9.841999999999985</v>
@@ -15681,7 +15703,7 @@
         <v>25.71000000000001</v>
       </c>
       <c r="K303" t="n">
-        <v>49.99999999999971</v>
+        <v>-71.42857142856599</v>
       </c>
       <c r="L303" t="n">
         <v>9.836999999999984</v>
@@ -15732,7 +15754,7 @@
         <v>25.72000000000001</v>
       </c>
       <c r="K304" t="n">
-        <v>43.39622641509433</v>
+        <v>-71.42857142857216</v>
       </c>
       <c r="L304" t="n">
         <v>9.832999999999982</v>
@@ -15783,7 +15805,7 @@
         <v>25.72000000000001</v>
       </c>
       <c r="K305" t="n">
-        <v>72.72727272727259</v>
+        <v>-71.42857142857216</v>
       </c>
       <c r="L305" t="n">
         <v>9.827999999999983</v>
@@ -15834,7 +15856,7 @@
         <v>25.72000000000001</v>
       </c>
       <c r="K306" t="n">
-        <v>71.4285714285713</v>
+        <v>100.0000000000178</v>
       </c>
       <c r="L306" t="n">
         <v>9.822999999999983</v>
@@ -15885,7 +15907,7 @@
         <v>25.72000000000001</v>
       </c>
       <c r="K307" t="n">
-        <v>71.4285714285713</v>
+        <v>100.0000000000178</v>
       </c>
       <c r="L307" t="n">
         <v>9.823999999999984</v>
@@ -15936,7 +15958,7 @@
         <v>25.73</v>
       </c>
       <c r="K308" t="n">
-        <v>67.44186046511655</v>
+        <v>0</v>
       </c>
       <c r="L308" t="n">
         <v>9.823999999999984</v>
@@ -15987,7 +16009,7 @@
         <v>25.74</v>
       </c>
       <c r="K309" t="n">
-        <v>27.27272727272764</v>
+        <v>-33.33333333333925</v>
       </c>
       <c r="L309" t="n">
         <v>9.822999999999984</v>
@@ -16038,7 +16060,7 @@
         <v>25.75</v>
       </c>
       <c r="K310" t="n">
-        <v>21.73913043478321</v>
+        <v>-50.00000000000888</v>
       </c>
       <c r="L310" t="n">
         <v>9.820999999999984</v>
@@ -16089,7 +16111,7 @@
         <v>25.88</v>
       </c>
       <c r="K311" t="n">
-        <v>-51.72413793103475</v>
+        <v>-88.23529411765007</v>
       </c>
       <c r="L311" t="n">
         <v>9.805999999999983</v>
@@ -16140,7 +16162,7 @@
         <v>25.92</v>
       </c>
       <c r="K312" t="n">
-        <v>-46.66666666666671</v>
+        <v>-52.38095238095367</v>
       </c>
       <c r="L312" t="n">
         <v>9.794999999999984</v>
@@ -16191,7 +16213,7 @@
         <v>25.93</v>
       </c>
       <c r="K313" t="n">
-        <v>-51.72413793103478</v>
+        <v>-52.38095238095367</v>
       </c>
       <c r="L313" t="n">
         <v>9.784999999999986</v>
@@ -16242,7 +16264,7 @@
         <v>25.94</v>
       </c>
       <c r="K314" t="n">
-        <v>-53.33333333333392</v>
+        <v>-54.54545454545623</v>
       </c>
       <c r="L314" t="n">
         <v>9.772999999999985</v>
@@ -16293,7 +16315,7 @@
         <v>25.94</v>
       </c>
       <c r="K315" t="n">
-        <v>-58.620689655174</v>
+        <v>-54.54545454545623</v>
       </c>
       <c r="L315" t="n">
         <v>9.760999999999985</v>
@@ -16344,7 +16366,7 @@
         <v>25.95</v>
       </c>
       <c r="K316" t="n">
-        <v>-60.00000000000178</v>
+        <v>-56.52173913043676</v>
       </c>
       <c r="L316" t="n">
         <v>9.747999999999987</v>
@@ -16395,7 +16417,7 @@
         <v>25.97</v>
       </c>
       <c r="K317" t="n">
-        <v>-38.46153846153967</v>
+        <v>-41.66666666666741</v>
       </c>
       <c r="L317" t="n">
         <v>9.736999999999986</v>
@@ -16446,7 +16468,7 @@
         <v>26</v>
       </c>
       <c r="K318" t="n">
-        <v>-44.82758620689805</v>
+        <v>-46.15384615384689</v>
       </c>
       <c r="L318" t="n">
         <v>9.723999999999986</v>
@@ -16497,7 +16519,7 @@
         <v>26.02</v>
       </c>
       <c r="K319" t="n">
-        <v>-48.38709677419497</v>
+        <v>-48.14814814814851</v>
       </c>
       <c r="L319" t="n">
         <v>9.709999999999987</v>
@@ -16548,7 +16570,7 @@
         <v>26.04</v>
       </c>
       <c r="K320" t="n">
-        <v>-51.51515151515287</v>
+        <v>-12.5</v>
       </c>
       <c r="L320" t="n">
         <v>9.694999999999988</v>
@@ -16599,7 +16621,7 @@
         <v>26.08</v>
       </c>
       <c r="K321" t="n">
-        <v>-56.75675675675846</v>
+        <v>-62.50000000000222</v>
       </c>
       <c r="L321" t="n">
         <v>9.688999999999988</v>
@@ -16650,7 +16672,7 @@
         <v>26.08</v>
       </c>
       <c r="K322" t="n">
-        <v>-56.75675675675846</v>
+        <v>-73.33333333333483</v>
       </c>
       <c r="L322" t="n">
         <v>9.678999999999988</v>
@@ -16701,7 +16723,7 @@
         <v>26.09</v>
       </c>
       <c r="K323" t="n">
-        <v>-57.89473684210721</v>
+        <v>-73.33333333333483</v>
       </c>
       <c r="L323" t="n">
         <v>9.666999999999987</v>
@@ -16752,7 +16774,7 @@
         <v>26.15</v>
       </c>
       <c r="K324" t="n">
-        <v>-67.44186046511766</v>
+        <v>-80.95238095238143</v>
       </c>
       <c r="L324" t="n">
         <v>9.649999999999986</v>
@@ -16803,7 +16825,7 @@
         <v>26.19</v>
       </c>
       <c r="K325" t="n">
-        <v>-70.21276595744806</v>
+        <v>-83.33333333333358</v>
       </c>
       <c r="L325" t="n">
         <v>9.628999999999985</v>
@@ -16854,7 +16876,7 @@
         <v>26.28</v>
       </c>
       <c r="K326" t="n">
-        <v>-75.00000000000111</v>
+        <v>-100.0000000000006</v>
       </c>
       <c r="L326" t="n">
         <v>9.599999999999984</v>
@@ -16905,7 +16927,7 @@
         <v>26.29</v>
       </c>
       <c r="K327" t="n">
-        <v>-71.9298245614044</v>
+        <v>-93.10344827586221</v>
       </c>
       <c r="L327" t="n">
         <v>9.569999999999984</v>
@@ -16956,7 +16978,7 @@
         <v>26.31</v>
       </c>
       <c r="K328" t="n">
-        <v>-65.51724137931107</v>
+        <v>-79.31034482758659</v>
       </c>
       <c r="L328" t="n">
         <v>9.544999999999984</v>
@@ -17007,7 +17029,7 @@
         <v>26.33</v>
       </c>
       <c r="K329" t="n">
-        <v>-66.10169491525475</v>
+        <v>-79.31034482758659</v>
       </c>
       <c r="L329" t="n">
         <v>9.519999999999985</v>
@@ -17058,7 +17080,7 @@
         <v>26.34</v>
       </c>
       <c r="K330" t="n">
-        <v>-62.71186440678023</v>
+        <v>-69.23076923076965</v>
       </c>
       <c r="L330" t="n">
         <v>9.497999999999985</v>
@@ -17109,7 +17131,7 @@
         <v>26.36</v>
       </c>
       <c r="K331" t="n">
-        <v>-45.8333333333341</v>
+        <v>-57.14285714285769</v>
       </c>
       <c r="L331" t="n">
         <v>9.481999999999985</v>
@@ -17160,7 +17182,7 @@
         <v>26.48</v>
       </c>
       <c r="K332" t="n">
-        <v>-25.00000000000032</v>
+        <v>-7.692307692307517</v>
       </c>
       <c r="L332" t="n">
         <v>9.477999999999984</v>
@@ -17211,7 +17233,7 @@
         <v>26.55</v>
       </c>
       <c r="K333" t="n">
-        <v>-35.48387096774218</v>
+        <v>-9.999999999999822</v>
       </c>
       <c r="L333" t="n">
         <v>9.467999999999986</v>
@@ -17262,7 +17284,7 @@
         <v>26.61</v>
       </c>
       <c r="K334" t="n">
-        <v>-22.38805970149253</v>
+        <v>14.28571428571435</v>
       </c>
       <c r="L334" t="n">
         <v>9.469999999999985</v>
@@ -17313,7 +17335,7 @@
         <v>26.67</v>
       </c>
       <c r="K335" t="n">
-        <v>-28.76712328767119</v>
+        <v>23.0769230769228</v>
       </c>
       <c r="L335" t="n">
         <v>9.469999999999985</v>
@@ -17364,7 +17386,7 @@
         <v>26.67</v>
       </c>
       <c r="K336" t="n">
-        <v>-27.77777777777758</v>
+        <v>21.05263157894725</v>
       </c>
       <c r="L336" t="n">
         <v>9.478999999999985</v>
@@ -17415,7 +17437,7 @@
         <v>26.77</v>
       </c>
       <c r="K337" t="n">
-        <v>-39.99999999999982</v>
+        <v>-8.695652173912775</v>
       </c>
       <c r="L337" t="n">
         <v>9.476999999999986</v>
@@ -17466,7 +17488,7 @@
         <v>26.77</v>
       </c>
       <c r="K338" t="n">
-        <v>-37.6623376623374</v>
+        <v>-4.545454545454398</v>
       </c>
       <c r="L338" t="n">
         <v>9.472999999999987</v>
@@ -17517,7 +17539,7 @@
         <v>26.9</v>
       </c>
       <c r="K339" t="n">
-        <v>-15.90909090909093</v>
+        <v>17.85714285714261</v>
       </c>
       <c r="L339" t="n">
         <v>9.483999999999986</v>
@@ -17568,7 +17590,7 @@
         <v>27.06</v>
       </c>
       <c r="K340" t="n">
-        <v>-27.45098039215689</v>
+        <v>-11.42857142857133</v>
       </c>
       <c r="L340" t="n">
         <v>9.477999999999986</v>
@@ -17619,7 +17641,7 @@
         <v>27.06</v>
       </c>
       <c r="K341" t="n">
-        <v>-24.48979591836727</v>
+        <v>-34.48275862068952</v>
       </c>
       <c r="L341" t="n">
         <v>9.469999999999986</v>
@@ -17670,7 +17692,7 @@
         <v>27.06</v>
       </c>
       <c r="K342" t="n">
-        <v>-24.48979591836727</v>
+        <v>-25.49019607843127</v>
       </c>
       <c r="L342" t="n">
         <v>9.449999999999985</v>
@@ -17721,7 +17743,7 @@
         <v>27.26000000000001</v>
       </c>
       <c r="K343" t="n">
-        <v>-2.56410256410249</v>
+        <v>1.538461538461492</v>
       </c>
       <c r="L343" t="n">
         <v>9.456999999999985</v>
@@ -17772,7 +17794,7 @@
         <v>27.26000000000001</v>
       </c>
       <c r="K344" t="n">
-        <v>2.702702702702789</v>
+        <v>11.864406779661</v>
       </c>
       <c r="L344" t="n">
         <v>9.457999999999984</v>
@@ -17823,7 +17845,7 @@
         <v>27.27</v>
       </c>
       <c r="K345" t="n">
-        <v>5.555555555555574</v>
+        <v>10.00000000000006</v>
       </c>
       <c r="L345" t="n">
         <v>9.463999999999984</v>
@@ -17874,7 +17896,7 @@
         <v>27.47000000000001</v>
       </c>
       <c r="K346" t="n">
-        <v>-4.201680672268938</v>
+        <v>-5.714285714285823</v>
       </c>
       <c r="L346" t="n">
         <v>9.449999999999985</v>
@@ -17925,7 +17947,7 @@
         <v>27.48</v>
       </c>
       <c r="K347" t="n">
-        <v>-4.20168067226895</v>
+        <v>-4.225352112676211</v>
       </c>
       <c r="L347" t="n">
         <v>9.446999999999985</v>
@@ -17976,7 +17998,7 @@
         <v>27.57000000000001</v>
       </c>
       <c r="K348" t="n">
-        <v>1.587301587301684</v>
+        <v>-10.44776119402955</v>
       </c>
       <c r="L348" t="n">
         <v>9.452999999999983</v>
@@ -18027,7 +18049,7 @@
         <v>27.61000000000001</v>
       </c>
       <c r="K349" t="n">
-        <v>6.249999999999965</v>
+        <v>23.63636363636359</v>
       </c>
       <c r="L349" t="n">
         <v>9.449999999999983</v>
@@ -18078,7 +18100,7 @@
         <v>27.66000000000001</v>
       </c>
       <c r="K350" t="n">
-        <v>1.51515151515147</v>
+        <v>13.33333333333324</v>
       </c>
       <c r="L350" t="n">
         <v>9.457999999999982</v>
@@ -18129,7 +18151,7 @@
         <v>27.69000000000001</v>
       </c>
       <c r="K351" t="n">
-        <v>2.255639097744425</v>
+        <v>17.46031746031748</v>
       </c>
       <c r="L351" t="n">
         <v>9.468999999999983</v>
@@ -18180,7 +18202,7 @@
         <v>27.72000000000001</v>
       </c>
       <c r="K352" t="n">
-        <v>-9.677419354838692</v>
+        <v>-26.0869565217391</v>
       </c>
       <c r="L352" t="n">
         <v>9.476999999999983</v>
@@ -18231,7 +18253,7 @@
         <v>27.78000000000001</v>
       </c>
       <c r="K353" t="n">
-        <v>-8.943089430894183</v>
+        <v>-34.61538461538435</v>
       </c>
       <c r="L353" t="n">
         <v>9.458999999999984</v>
@@ -18282,7 +18304,7 @@
         <v>27.88000000000001</v>
       </c>
       <c r="K354" t="n">
-        <v>-5.511811023622025</v>
+        <v>-11.4754098360655</v>
       </c>
       <c r="L354" t="n">
         <v>9.450999999999983</v>
@@ -18333,7 +18355,7 @@
         <v>27.88000000000001</v>
       </c>
       <c r="K355" t="n">
-        <v>-0.8264462809917125</v>
+        <v>31.70731707317064</v>
       </c>
       <c r="L355" t="n">
         <v>9.443999999999981</v>
@@ -18384,7 +18406,7 @@
         <v>27.89000000000001</v>
       </c>
       <c r="K356" t="n">
-        <v>0</v>
+        <v>31.70731707317064</v>
       </c>
       <c r="L356" t="n">
         <v>9.457999999999981</v>
@@ -18435,7 +18457,7 @@
         <v>27.95000000000001</v>
       </c>
       <c r="K357" t="n">
-        <v>13.55932203389824</v>
+        <v>26.31578947368394</v>
       </c>
       <c r="L357" t="n">
         <v>9.476999999999981</v>
@@ -18486,7 +18508,7 @@
         <v>27.95000000000001</v>
       </c>
       <c r="K358" t="n">
-        <v>13.55932203389824</v>
+        <v>17.64705882352938</v>
       </c>
       <c r="L358" t="n">
         <v>9.486999999999981</v>
@@ -18537,7 +18559,7 @@
         <v>28.08000000000001</v>
       </c>
       <c r="K359" t="n">
-        <v>13.55932203389824</v>
+        <v>57.14285714285696</v>
       </c>
       <c r="L359" t="n">
         <v>9.505999999999981</v>
@@ -18588,7 +18610,7 @@
         <v>28.11000000000001</v>
       </c>
       <c r="K360" t="n">
-        <v>27.61904761904759</v>
+        <v>42.85714285714297</v>
       </c>
       <c r="L360" t="n">
         <v>9.52699999999998</v>
@@ -18639,7 +18661,7 @@
         <v>28.15000000000001</v>
       </c>
       <c r="K361" t="n">
-        <v>30.27522935779808</v>
+        <v>58.13953488372145</v>
       </c>
       <c r="L361" t="n">
         <v>9.54899999999998</v>
@@ -18690,7 +18712,7 @@
         <v>28.16000000000001</v>
       </c>
       <c r="K362" t="n">
-        <v>30.90909090909092</v>
+        <v>84.21052631578976</v>
       </c>
       <c r="L362" t="n">
         <v>9.574999999999978</v>
@@ -18741,7 +18763,7 @@
         <v>28.17000000000001</v>
       </c>
       <c r="K363" t="n">
-        <v>14.28571428571412</v>
+        <v>72.41379310344817</v>
       </c>
       <c r="L363" t="n">
         <v>9.605999999999979</v>
@@ -18792,7 +18814,7 @@
         <v>28.33000000000001</v>
       </c>
       <c r="K364" t="n">
-        <v>-2.803738317757106</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L364" t="n">
         <v>9.610999999999979</v>
@@ -18843,7 +18865,7 @@
         <v>28.48000000000001</v>
       </c>
       <c r="K365" t="n">
-        <v>10.74380165289241</v>
+        <v>32.20338983050821</v>
       </c>
       <c r="L365" t="n">
         <v>9.630999999999981</v>
@@ -18894,7 +18916,7 @@
         <v>28.49000000000001</v>
       </c>
       <c r="K366" t="n">
-        <v>31.37254901960777</v>
+        <v>22.22222222222211</v>
       </c>
       <c r="L366" t="n">
         <v>9.648999999999981</v>
@@ -18945,7 +18967,7 @@
         <v>28.50000000000001</v>
       </c>
       <c r="K367" t="n">
-        <v>29.41176470588233</v>
+        <v>20</v>
       </c>
       <c r="L367" t="n">
         <v>9.659999999999981</v>
@@ -18996,7 +19018,7 @@
         <v>28.70000000000001</v>
       </c>
       <c r="K368" t="n">
-        <v>0.8849557522123713</v>
+        <v>-35.4838709677419</v>
       </c>
       <c r="L368" t="n">
         <v>9.65099999999998</v>
@@ -19047,7 +19069,7 @@
         <v>28.80000000000001</v>
       </c>
       <c r="K369" t="n">
-        <v>-10.92436974789921</v>
+        <v>-42.02898550724643</v>
       </c>
       <c r="L369" t="n">
         <v>9.618999999999982</v>
@@ -19098,7 +19120,7 @@
         <v>29.07000000000001</v>
       </c>
       <c r="K370" t="n">
-        <v>13.47517730496463</v>
+        <v>-6.521739130434631</v>
       </c>
       <c r="L370" t="n">
         <v>9.616999999999981</v>
@@ -19149,7 +19171,7 @@
         <v>29.07000000000001</v>
       </c>
       <c r="K371" t="n">
-        <v>11.59420289855074</v>
+        <v>-7.692307692307722</v>
       </c>
       <c r="L371" t="n">
         <v>9.610999999999981</v>
@@ -19200,7 +19222,7 @@
         <v>29.07000000000001</v>
       </c>
       <c r="K372" t="n">
-        <v>14.07407407407419</v>
+        <v>-6.666666666666535</v>
       </c>
       <c r="L372" t="n">
         <v>9.603999999999981</v>
@@ -19251,7 +19273,7 @@
         <v>29.13000000000001</v>
       </c>
       <c r="K373" t="n">
-        <v>14.07407407407402</v>
+        <v>5.000000000000111</v>
       </c>
       <c r="L373" t="n">
         <v>9.591999999999981</v>
@@ -19302,7 +19324,7 @@
         <v>29.14000000000001</v>
       </c>
       <c r="K374" t="n">
-        <v>6.349206349206366</v>
+        <v>-18.18181818181816</v>
       </c>
       <c r="L374" t="n">
         <v>9.594999999999981</v>
@@ -19353,7 +19375,7 @@
         <v>29.27000000000001</v>
       </c>
       <c r="K375" t="n">
-        <v>-3.597122302158323</v>
+        <v>-30.76923076923076</v>
       </c>
       <c r="L375" t="n">
         <v>9.569999999999983</v>
@@ -19404,7 +19426,7 @@
         <v>29.30000000000001</v>
       </c>
       <c r="K376" t="n">
-        <v>-2.127659574468034</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L376" t="n">
         <v>9.548999999999982</v>
@@ -19455,7 +19477,7 @@
         <v>29.40000000000001</v>
       </c>
       <c r="K377" t="n">
-        <v>0.6896551724137771</v>
+        <v>14.28571428571411</v>
       </c>
       <c r="L377" t="n">
         <v>9.53899999999998</v>
@@ -19506,7 +19528,7 @@
         <v>29.51000000000001</v>
       </c>
       <c r="K378" t="n">
-        <v>-6.410256410256378</v>
+        <v>12.67605633802832</v>
       </c>
       <c r="L378" t="n">
         <v>9.537999999999979</v>
@@ -19557,7 +19579,7 @@
         <v>29.52000000000001</v>
       </c>
       <c r="K379" t="n">
-        <v>-16.66666666666663</v>
+        <v>-42.22222222222191</v>
       </c>
       <c r="L379" t="n">
         <v>9.54599999999998</v>
@@ -19608,7 +19630,7 @@
         <v>29.63000000000002</v>
       </c>
       <c r="K380" t="n">
-        <v>-6.578947368420986</v>
+        <v>-14.28571428571406</v>
       </c>
       <c r="L380" t="n">
         <v>9.537999999999979</v>
@@ -19659,7 +19681,7 @@
         <v>29.64000000000001</v>
       </c>
       <c r="K381" t="n">
-        <v>-10.06711409395957</v>
+        <v>-15.7894736842103</v>
       </c>
       <c r="L381" t="n">
         <v>9.528999999999979</v>
@@ -19710,7 +19732,7 @@
         <v>29.64000000000001</v>
       </c>
       <c r="K382" t="n">
-        <v>-10.81081081081077</v>
+        <v>-5.882352941176286</v>
       </c>
       <c r="L382" t="n">
         <v>9.519999999999978</v>
@@ -19761,7 +19783,7 @@
         <v>29.74000000000002</v>
       </c>
       <c r="K383" t="n">
-        <v>-15.92356687898082</v>
+        <v>-19.99999999999988</v>
       </c>
       <c r="L383" t="n">
         <v>9.50699999999998</v>
@@ -19812,7 +19834,7 @@
         <v>29.85000000000002</v>
       </c>
       <c r="K384" t="n">
-        <v>1.315789473684293</v>
+        <v>20.68965517241377</v>
       </c>
       <c r="L384" t="n">
         <v>9.505999999999981</v>
@@ -19863,7 +19885,7 @@
         <v>29.86000000000001</v>
       </c>
       <c r="K385" t="n">
-        <v>-8.695652173912972</v>
+        <v>17.85714285714272</v>
       </c>
       <c r="L385" t="n">
         <v>9.518999999999981</v>
@@ -19914,7 +19936,7 @@
         <v>29.97000000000001</v>
       </c>
       <c r="K386" t="n">
-        <v>-14.86486486486475</v>
+        <v>-19.29824561403498</v>
       </c>
       <c r="L386" t="n">
         <v>9.517999999999981</v>
@@ -19965,7 +19987,7 @@
         <v>30.06000000000002</v>
       </c>
       <c r="K387" t="n">
-        <v>-19.23076923076916</v>
+        <v>-16.36363636363653</v>
       </c>
       <c r="L387" t="n">
         <v>9.497999999999982</v>
@@ -20016,7 +20038,7 @@
         <v>30.11000000000002</v>
       </c>
       <c r="K388" t="n">
-        <v>-3.546099290780165</v>
+        <v>-5.084745762711727</v>
       </c>
       <c r="L388" t="n">
         <v>9.493999999999982</v>
@@ -20067,7 +20089,7 @@
         <v>30.22000000000002</v>
       </c>
       <c r="K389" t="n">
-        <v>11.26760563380276</v>
+        <v>-5.084745762712059</v>
       </c>
       <c r="L389" t="n">
         <v>9.501999999999983</v>
@@ -20118,7 +20140,7 @@
         <v>30.25000000000001</v>
       </c>
       <c r="K390" t="n">
-        <v>-11.864406779661</v>
+        <v>-8.196721311475534</v>
       </c>
       <c r="L390" t="n">
         <v>9.495999999999983</v>
@@ -20169,7 +20191,7 @@
         <v>30.25000000000001</v>
       </c>
       <c r="K391" t="n">
-        <v>-11.864406779661</v>
+        <v>-8.196721311475534</v>
       </c>
       <c r="L391" t="n">
         <v>9.490999999999982</v>
@@ -20220,7 +20242,7 @@
         <v>30.30000000000001</v>
       </c>
       <c r="K392" t="n">
-        <v>-7.317073170731652</v>
+        <v>17.85714285714315</v>
       </c>
       <c r="L392" t="n">
         <v>9.490999999999982</v>
@@ -20271,7 +20293,7 @@
         <v>30.32000000000001</v>
       </c>
       <c r="K393" t="n">
-        <v>-0.8403361344537601</v>
+        <v>2.127659574468045</v>
       </c>
       <c r="L393" t="n">
         <v>9.502999999999982</v>
@@ -20322,7 +20344,7 @@
         <v>30.39000000000001</v>
       </c>
       <c r="K394" t="n">
-        <v>-5.599999999999991</v>
+        <v>-13.20754716981135</v>
       </c>
       <c r="L394" t="n">
         <v>9.496999999999982</v>
@@ -20373,7 +20395,7 @@
         <v>30.40000000000001</v>
       </c>
       <c r="K395" t="n">
-        <v>6.194690265486737</v>
+        <v>11.62790697674395</v>
       </c>
       <c r="L395" t="n">
         <v>9.490999999999982</v>
@@ -20424,7 +20446,7 @@
         <v>30.40000000000001</v>
       </c>
       <c r="K396" t="n">
-        <v>3.636363636363554</v>
+        <v>41.17647058823591</v>
       </c>
       <c r="L396" t="n">
         <v>9.495999999999984</v>
@@ -20475,7 +20497,7 @@
         <v>30.61000000000001</v>
       </c>
       <c r="K397" t="n">
-        <v>-22.31404958677681</v>
+        <v>-24.00000000000001</v>
       </c>
       <c r="L397" t="n">
         <v>9.488999999999983</v>
@@ -20526,7 +20548,7 @@
         <v>30.64000000000001</v>
       </c>
       <c r="K398" t="n">
-        <v>-11.50442477876111</v>
+        <v>-47.61904761904766</v>
       </c>
       <c r="L398" t="n">
         <v>9.479999999999983</v>
@@ -20577,7 +20599,7 @@
         <v>30.67000000000002</v>
       </c>
       <c r="K399" t="n">
-        <v>-13.04347826086942</v>
+        <v>-47.61904761904726</v>
       </c>
       <c r="L399" t="n">
         <v>9.456999999999983</v>
@@ -20628,7 +20650,7 @@
         <v>30.72000000000002</v>
       </c>
       <c r="K400" t="n">
-        <v>-28.44036697247711</v>
+        <v>-53.19148936170185</v>
       </c>
       <c r="L400" t="n">
         <v>9.431999999999983</v>
@@ -20679,7 +20701,7 @@
         <v>30.84000000000002</v>
       </c>
       <c r="K401" t="n">
-        <v>-15.00000000000009</v>
+        <v>-33.33333333333344</v>
       </c>
       <c r="L401" t="n">
         <v>9.418999999999983</v>
@@ -20730,7 +20752,7 @@
         <v>30.96000000000002</v>
       </c>
       <c r="K402" t="n">
-        <v>-22.72727272727278</v>
+        <v>-50</v>
       </c>
       <c r="L402" t="n">
         <v>9.388999999999983</v>
@@ -20781,7 +20803,7 @@
         <v>31.01000000000002</v>
       </c>
       <c r="K403" t="n">
-        <v>-19.68503937007875</v>
+        <v>-48.38709677419358</v>
       </c>
       <c r="L403" t="n">
         <v>9.351999999999984</v>
@@ -20832,7 +20854,7 @@
         <v>31.06000000000002</v>
       </c>
       <c r="K404" t="n">
-        <v>-25.61983471074383</v>
+        <v>-39.39393939393914</v>
       </c>
       <c r="L404" t="n">
         <v>9.326999999999984</v>
@@ -20883,7 +20905,7 @@
         <v>31.14000000000001</v>
       </c>
       <c r="K405" t="n">
-        <v>-18.75</v>
+        <v>-24.32432432432422</v>
       </c>
       <c r="L405" t="n">
         <v>9.308999999999983</v>
@@ -20934,7 +20956,7 @@
         <v>31.17000000000002</v>
       </c>
       <c r="K406" t="n">
-        <v>-8.333333333333432</v>
+        <v>10.71428571428544</v>
       </c>
       <c r="L406" t="n">
         <v>9.293999999999983</v>
@@ -20985,7 +21007,7 @@
         <v>31.30000000000002</v>
       </c>
       <c r="K407" t="n">
-        <v>9.677419354838774</v>
+        <v>24.24242424242413</v>
       </c>
       <c r="L407" t="n">
         <v>9.312999999999983</v>
@@ -21036,7 +21058,7 @@
         <v>31.42000000000002</v>
       </c>
       <c r="K408" t="n">
-        <v>-3.816793893129818</v>
+        <v>9.333333333333089</v>
       </c>
       <c r="L408" t="n">
         <v>9.316999999999982</v>
@@ -21087,7 +21109,7 @@
         <v>31.47000000000002</v>
       </c>
       <c r="K409" t="n">
-        <v>-8.79999999999993</v>
+        <v>22.66666666666655</v>
       </c>
       <c r="L409" t="n">
         <v>9.328999999999983</v>
@@ -21138,7 +21160,7 @@
         <v>31.53000000000002</v>
       </c>
       <c r="K410" t="n">
-        <v>-1.562499999999957</v>
+        <v>15.94202898550731</v>
       </c>
       <c r="L410" t="n">
         <v>9.351999999999984</v>
@@ -21189,7 +21211,7 @@
         <v>31.53000000000002</v>
       </c>
       <c r="K411" t="n">
-        <v>-1.562499999999957</v>
+        <v>40.35087719298201</v>
       </c>
       <c r="L411" t="n">
         <v>9.362999999999984</v>
@@ -21240,7 +21262,7 @@
         <v>31.62000000000002</v>
       </c>
       <c r="K412" t="n">
-        <v>-12.12121212121206</v>
+        <v>31.14754098360643</v>
       </c>
       <c r="L412" t="n">
         <v>9.376999999999985</v>

--- a/BackTest/2019-11-17 BackTest IOST.xlsx
+++ b/BackTest/2019-11-17 BackTest IOST.xlsx
@@ -451,17 +451,13 @@
         <v>7.844833333333336</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="K2" t="n">
-        <v>8.130000000000001</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>7.852000000000003</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="K3" t="n">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>7.859000000000003</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>7.864666666666668</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>8</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>7.874000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>7.884333333333335</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K7" t="n">
-        <v>8</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,22 +661,14 @@
         <v>7.896666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="K8" t="n">
-        <v>8</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -744,22 +696,14 @@
         <v>7.909666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="K9" t="n">
-        <v>8</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -793,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>8</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>8</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -875,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>8</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -916,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>8</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -957,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>8</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -998,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>8</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1039,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>8</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1080,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>8</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1121,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>8</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1162,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>8</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1203,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>8</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1244,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>8</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1285,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>8</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1326,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>8</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1367,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>8</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1408,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>8</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1449,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>8</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1490,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>8</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1531,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>8</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1572,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>8</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1613,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>8</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1654,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>8</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1695,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>8</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1736,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>8</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1777,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>8</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1818,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>8</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1859,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>8</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1900,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>8</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1941,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>8</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1982,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>8</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2023,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>8</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2064,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>8</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2105,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>8</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2146,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>8</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2187,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>8</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2228,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>8</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2269,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>8</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2310,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>8</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2351,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>8</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2392,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>8</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2433,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>8</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2474,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>8</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2515,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>8</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2556,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>8</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2597,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>8</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2638,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>8</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2679,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>8</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2717,17 +2379,11 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>8</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2758,17 +2414,11 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>8</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2799,17 +2449,11 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>8</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2843,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>8</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2884,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>8</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2925,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>8</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2966,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>8</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3007,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>8</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3048,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>8</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3089,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>8</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3130,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>8</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3171,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>8</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3212,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>8</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3250,19 +2834,13 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>8</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>1.19375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -3291,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3326,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3361,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3431,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -4198,13 +3776,17 @@
         <v>9.189833333333329</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="K97" t="n">
+        <v>8.82</v>
+      </c>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
@@ -4233,14 +3815,22 @@
         <v>9.199999999999996</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>9</v>
+      </c>
+      <c r="K98" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4268,14 +3858,22 @@
         <v>9.214499999999996</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="K99" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4303,14 +3901,22 @@
         <v>9.226333333333331</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="K100" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4338,14 +3944,22 @@
         <v>9.23733333333333</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="K101" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4373,14 +3987,22 @@
         <v>9.247999999999996</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="K102" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4408,14 +4030,22 @@
         <v>9.263499999999995</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="K103" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4449,8 +4079,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4484,8 +4120,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4519,8 +4161,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4554,8 +4202,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4589,8 +4243,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4624,8 +4284,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4659,8 +4325,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4694,8 +4366,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4729,8 +4407,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4764,8 +4448,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4799,8 +4489,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4834,8 +4530,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4869,8 +4571,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4904,8 +4612,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4939,8 +4653,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4974,8 +4694,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5009,8 +4735,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5044,8 +4776,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5079,8 +4817,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5114,8 +4858,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5149,8 +4899,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5184,8 +4940,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5219,8 +4981,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5254,8 +5022,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5289,8 +5063,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5324,8 +5104,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5359,8 +5145,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5394,8 +5186,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5429,8 +5227,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5464,8 +5268,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5499,8 +5309,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5534,8 +5350,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +5391,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5604,8 +5432,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5639,8 +5473,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5674,8 +5514,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5709,8 +5555,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5744,8 +5596,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5779,8 +5637,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5814,8 +5678,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5849,8 +5719,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5884,8 +5760,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5919,8 +5801,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5954,8 +5842,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5989,8 +5883,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6024,8 +5924,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6059,8 +5965,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6094,8 +6006,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6129,8 +6047,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6164,8 +6088,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6199,8 +6129,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6234,8 +6170,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6269,8 +6211,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6304,8 +6252,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6339,8 +6293,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6374,8 +6334,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6409,8 +6375,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6444,8 +6416,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6479,8 +6457,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6514,8 +6498,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6549,8 +6539,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6584,8 +6580,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6619,8 +6621,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6654,8 +6662,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6689,8 +6703,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +6744,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6759,8 +6785,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6794,8 +6826,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6829,8 +6867,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6864,8 +6908,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6899,8 +6949,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6934,8 +6990,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6969,8 +7031,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7004,8 +7072,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7039,8 +7113,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7074,8 +7154,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7109,8 +7195,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7144,8 +7236,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7179,8 +7277,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7214,8 +7318,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7249,8 +7359,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7284,8 +7400,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7319,8 +7441,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7354,8 +7482,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7389,8 +7523,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7424,8 +7564,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7459,8 +7605,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7494,8 +7646,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7529,8 +7687,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7564,8 +7728,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7599,8 +7769,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7634,8 +7810,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7669,8 +7851,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7704,8 +7892,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7739,8 +7933,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7774,8 +7974,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7809,8 +8015,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7844,8 +8056,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7879,8 +8097,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7914,8 +8138,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7949,8 +8179,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7984,8 +8220,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8019,8 +8261,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8054,8 +8302,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8089,8 +8343,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8124,8 +8384,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8159,8 +8425,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8194,8 +8466,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8229,8 +8507,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8264,8 +8548,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8299,8 +8589,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8334,8 +8630,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8369,8 +8671,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8404,8 +8712,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8439,8 +8753,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8474,8 +8794,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8509,8 +8835,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8544,8 +8876,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8579,8 +8917,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8614,8 +8958,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8649,8 +8999,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8684,8 +9040,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8719,8 +9081,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8754,8 +9122,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8789,8 +9163,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8824,8 +9204,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8859,8 +9245,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8894,8 +9286,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8929,8 +9327,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8964,8 +9368,14 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8999,8 +9409,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9034,8 +9450,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9069,8 +9491,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9104,8 +9532,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9139,8 +9573,14 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9174,8 +9614,14 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9209,8 +9655,14 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9244,8 +9696,14 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9279,8 +9737,14 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9314,8 +9778,14 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9349,8 +9819,14 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9384,8 +9860,14 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9419,8 +9901,14 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9454,8 +9942,14 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9489,8 +9983,14 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9524,8 +10024,14 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9559,8 +10065,14 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9594,8 +10106,14 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9629,8 +10147,14 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9664,8 +10188,14 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9699,8 +10229,14 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9734,8 +10270,14 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9769,8 +10311,14 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9804,8 +10352,14 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9839,8 +10393,14 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9874,8 +10434,14 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9909,8 +10475,14 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9944,8 +10516,14 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9979,8 +10557,14 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10014,8 +10598,14 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10049,8 +10639,14 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10084,8 +10680,14 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10119,8 +10721,14 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10154,8 +10762,14 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10189,8 +10803,14 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10224,8 +10844,14 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10259,8 +10885,14 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10294,8 +10926,14 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10329,8 +10967,14 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10364,8 +11008,14 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10399,8 +11049,14 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10434,8 +11090,14 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10469,8 +11131,14 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10504,8 +11172,14 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10539,8 +11213,14 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10574,8 +11254,14 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10609,8 +11295,14 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10644,8 +11336,14 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10679,8 +11377,14 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10714,8 +11418,14 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10749,8 +11459,14 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10784,8 +11500,14 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10819,8 +11541,14 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10854,8 +11582,14 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10889,8 +11623,14 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10924,8 +11664,14 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10959,8 +11705,14 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10994,8 +11746,14 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11029,8 +11787,14 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11064,8 +11828,14 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11099,8 +11869,14 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11134,8 +11910,14 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11169,8 +11951,14 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11204,8 +11992,14 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11239,8 +12033,14 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11274,8 +12074,14 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11309,8 +12115,14 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11344,8 +12156,14 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11379,8 +12197,14 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11414,8 +12238,14 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11449,8 +12279,14 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11484,8 +12320,14 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11519,8 +12361,14 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11554,8 +12402,14 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11589,8 +12443,14 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11624,8 +12484,14 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11659,8 +12525,14 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11694,8 +12566,14 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11729,8 +12607,14 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11764,8 +12648,14 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11799,8 +12689,14 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11834,8 +12730,14 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11869,8 +12771,14 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11904,8 +12812,14 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11939,8 +12853,14 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11974,8 +12894,14 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12009,8 +12935,14 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12044,8 +12976,14 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12079,8 +13017,14 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12114,8 +13058,14 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12149,8 +13099,14 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12184,8 +13140,14 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12219,8 +13181,14 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12254,8 +13222,14 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12289,8 +13263,14 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12324,8 +13304,14 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12359,8 +13345,14 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12394,8 +13386,14 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12429,8 +13427,14 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12464,8 +13468,14 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12499,8 +13509,14 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12534,8 +13550,14 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12569,8 +13591,14 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12604,8 +13632,14 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12639,8 +13673,14 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12674,8 +13714,14 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12709,8 +13755,14 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12744,8 +13796,14 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12779,8 +13837,14 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12814,8 +13878,14 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12849,8 +13919,14 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12884,8 +13960,14 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12919,8 +14001,14 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12954,8 +14042,14 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -12989,8 +14083,14 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13024,8 +14124,14 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13059,8 +14165,14 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13094,8 +14206,14 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13129,8 +14247,14 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13164,8 +14288,14 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13199,8 +14329,14 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13234,8 +14370,14 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13269,8 +14411,14 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13304,8 +14452,14 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13339,8 +14493,14 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13374,8 +14534,14 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13409,8 +14575,14 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13444,8 +14616,14 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13479,8 +14657,14 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13514,8 +14698,14 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13549,8 +14739,14 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13584,8 +14780,14 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13619,8 +14821,14 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13654,8 +14862,14 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13689,8 +14903,14 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13724,8 +14944,14 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13759,8 +14985,14 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13794,8 +15026,14 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -13829,8 +15067,14 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -13864,8 +15108,14 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -13899,8 +15149,14 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -13934,8 +15190,14 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -13969,8 +15231,14 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14004,8 +15272,14 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14039,8 +15313,14 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14074,8 +15354,14 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14109,8 +15395,14 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14144,8 +15436,14 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14179,8 +15477,14 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14214,8 +15518,14 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14249,8 +15559,14 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14284,8 +15600,14 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14319,8 +15641,14 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14354,8 +15682,14 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14389,8 +15723,14 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14424,8 +15764,14 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14459,8 +15805,14 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14494,8 +15846,14 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-17 BackTest IOST.xlsx
+++ b/BackTest/2019-11-17 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>255576.3736</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>238576.3736</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>7.7</v>
@@ -521,7 +521,7 @@
         <v>199649.6825000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>7.67</v>
@@ -562,7 +562,7 @@
         <v>196149.6825000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>7.66</v>
@@ -603,7 +603,7 @@
         <v>183149.6825000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>7.65</v>
@@ -640,7 +640,7 @@
         <v>293206.6611</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>7.62</v>
@@ -681,7 +681,7 @@
         <v>342659.722</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>7.66</v>
@@ -722,7 +722,7 @@
         <v>336027.1347</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>7.67</v>
@@ -759,7 +759,7 @@
         <v>335927.1347</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>7.64</v>
@@ -800,7 +800,7 @@
         <v>335927.1347</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>7.6</v>
@@ -841,7 +841,7 @@
         <v>335997.1347</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>7.6</v>
@@ -878,7 +878,7 @@
         <v>259342.1294</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>7.66</v>
@@ -919,7 +919,7 @@
         <v>186342.1294</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>7.64</v>
@@ -960,7 +960,7 @@
         <v>186412.1294</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>7.63</v>
@@ -997,7 +997,7 @@
         <v>150522.5801</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>7.66</v>
@@ -1038,7 +1038,7 @@
         <v>146240.3823</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>7.65</v>
@@ -1079,7 +1079,7 @@
         <v>167800.3823</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>7.63</v>
@@ -1116,7 +1116,7 @@
         <v>200212.8991</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>7.66</v>
@@ -1157,7 +1157,7 @@
         <v>752333.4885296633</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>7.69</v>
@@ -1198,7 +1198,7 @@
         <v>679770.5181296633</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>7.72</v>
@@ -1235,7 +1235,7 @@
         <v>672763.2443296633</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>7.7</v>
@@ -1276,7 +1276,7 @@
         <v>672763.2443296633</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>7.68</v>
@@ -1317,7 +1317,7 @@
         <v>679770.5181296633</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>7.68</v>
@@ -1354,7 +1354,7 @@
         <v>702390.5181296633</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>7.69</v>
@@ -1395,7 +1395,7 @@
         <v>702390.5181296633</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>7.7</v>
@@ -1436,7 +1436,7 @@
         <v>2978271.849229664</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>7.7</v>
@@ -1473,7 +1473,7 @@
         <v>3706470.472029664</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>7.84</v>
@@ -1514,7 +1514,7 @@
         <v>3706470.472029664</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>7.89</v>
@@ -1555,7 +1555,7 @@
         <v>4095985.306129664</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>7.89</v>
@@ -1596,7 +1596,7 @@
         <v>3015216.107352322</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>7.9</v>
@@ -1637,7 +1637,7 @@
         <v>3199837.758952322</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>7.86</v>
@@ -1678,7 +1678,7 @@
         <v>2535478.647652322</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>7.95</v>
@@ -1719,7 +1719,7 @@
         <v>2535478.647652322</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>7.86</v>
@@ -1760,7 +1760,7 @@
         <v>2662971.120452322</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>7.86</v>
@@ -1801,7 +1801,7 @@
         <v>3597875.578152322</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>7.91</v>
@@ -1842,7 +1842,7 @@
         <v>4188398.652201952</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>8</v>
@@ -1883,7 +1883,7 @@
         <v>4025334.579601952</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>8.08</v>
@@ -1924,9 +1924,11 @@
         <v>3861899.269401952</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>7.99</v>
+      </c>
       <c r="J39" t="n">
         <v>7.7</v>
       </c>
@@ -1963,9 +1965,11 @@
         <v>3900347.606901952</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>7.91</v>
+      </c>
       <c r="J40" t="n">
         <v>7.7</v>
       </c>
@@ -2002,9 +2006,11 @@
         <v>4010930.616101952</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>7.94</v>
+      </c>
       <c r="J41" t="n">
         <v>7.7</v>
       </c>
@@ -2041,9 +2047,11 @@
         <v>4006262.692101952</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>7.99</v>
+      </c>
       <c r="J42" t="n">
         <v>7.7</v>
       </c>
@@ -2080,9 +2088,11 @@
         <v>3965034.004801952</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7.96</v>
+      </c>
       <c r="J43" t="n">
         <v>7.7</v>
       </c>
@@ -2119,9 +2129,11 @@
         <v>3968033.463001952</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>7.9</v>
+      </c>
       <c r="J44" t="n">
         <v>7.7</v>
       </c>
@@ -2587,9 +2599,11 @@
         <v>5322631.876501952</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>7.97</v>
+      </c>
       <c r="J56" t="n">
         <v>7.7</v>
       </c>
@@ -2665,9 +2679,11 @@
         <v>5866278.801801953</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>8.06</v>
+      </c>
       <c r="J58" t="n">
         <v>7.7</v>
       </c>
@@ -5200,7 +5216,7 @@
         <v>23600095.34670578</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
@@ -5356,7 +5372,7 @@
         <v>22668852.13590578</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
@@ -5434,7 +5450,7 @@
         <v>21857539.93846697</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
@@ -5512,7 +5528,7 @@
         <v>21631732.95975122</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
@@ -5668,7 +5684,7 @@
         <v>21758225.20776688</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
@@ -5824,7 +5840,7 @@
         <v>22430054.40806688</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
@@ -5902,7 +5918,7 @@
         <v>22638159.14256688</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
@@ -5941,7 +5957,7 @@
         <v>22673370.14256688</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
@@ -5980,7 +5996,7 @@
         <v>22477110.90336688</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
@@ -6253,7 +6269,7 @@
         <v>21865161.47099705</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
@@ -6292,7 +6308,7 @@
         <v>21656152.85329705</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
@@ -6370,7 +6386,7 @@
         <v>21743659.45909705</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
@@ -6409,7 +6425,7 @@
         <v>21743659.45909705</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
@@ -6448,7 +6464,7 @@
         <v>21522100.98289705</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
@@ -9997,7 +10013,7 @@
         <v>35606299.68452932</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
@@ -10005,15 +10021,13 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L246" t="n">
-        <v>1.332662337662338</v>
-      </c>
-      <c r="M246" t="n">
-        <v>1.038157894736842</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10038,11 +10052,17 @@
         <v>35606299.68452932</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10071,11 +10091,17 @@
         <v>35136073.10472932</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10107,8 +10133,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10137,11 +10169,17 @@
         <v>37970671.89338369</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10170,11 +10208,17 @@
         <v>37970671.89338369</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10203,11 +10247,17 @@
         <v>37685669.91108369</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10236,11 +10286,17 @@
         <v>37685669.91108369</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10269,11 +10325,17 @@
         <v>36842231.04818369</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10305,8 +10367,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10338,8 +10406,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10371,8 +10445,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10404,8 +10484,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10437,8 +10523,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10470,8 +10562,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10503,8 +10601,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10536,8 +10640,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10569,8 +10679,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10602,8 +10718,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10632,15 +10754,23 @@
         <v>36921638.38542728</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+        <v>1.287207792207792</v>
+      </c>
+      <c r="M265" t="n">
+        <v>1.038157894736842</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10665,7 +10795,7 @@
         <v>36589244.79842728</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10698,7 +10828,7 @@
         <v>36609213.81282728</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10797,7 +10927,7 @@
         <v>35507887.49672729</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10830,7 +10960,7 @@
         <v>35507887.49672729</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10863,7 +10993,7 @@
         <v>35507937.49672729</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -11325,7 +11455,7 @@
         <v>38135987.7115114</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11391,7 +11521,7 @@
         <v>36215610.17521139</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11424,7 +11554,7 @@
         <v>36652449.29431139</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11457,7 +11587,7 @@
         <v>36652449.29431139</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11490,7 +11620,7 @@
         <v>36107917.62161139</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11523,7 +11653,7 @@
         <v>36021131.29651139</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11556,7 +11686,7 @@
         <v>36218548.08751139</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11589,7 +11719,7 @@
         <v>36005989.12181139</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11622,7 +11752,7 @@
         <v>36011684.27611139</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11655,7 +11785,7 @@
         <v>35885201.14831138</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11688,7 +11818,7 @@
         <v>35103715.67431138</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11721,7 +11851,7 @@
         <v>34378087.84441139</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11754,7 +11884,7 @@
         <v>34298098.33971139</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11787,7 +11917,7 @@
         <v>34155661.46341139</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11820,7 +11950,7 @@
         <v>34913960.52691139</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11853,7 +11983,7 @@
         <v>34938220.52691139</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11886,7 +12016,7 @@
         <v>34909243.03271139</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11919,7 +12049,7 @@
         <v>34909243.03271139</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11952,7 +12082,7 @@
         <v>34903103.03271139</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12744,7 +12874,7 @@
         <v>35061611.8158114</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12843,7 +12973,7 @@
         <v>34953877.91351141</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12876,7 +13006,7 @@
         <v>35166168.99841141</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12909,7 +13039,7 @@
         <v>35243300.98421141</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13140,7 +13270,7 @@
         <v>34760013.18391141</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -14229,7 +14359,7 @@
         <v>34095331.8656114</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14262,7 +14392,7 @@
         <v>34085280.3192114</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14295,7 +14425,7 @@
         <v>34156477.4677114</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14328,7 +14458,7 @@
         <v>34125951.20501141</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14361,7 +14491,7 @@
         <v>34122951.20501141</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14394,7 +14524,7 @@
         <v>34118446.8483114</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14592,7 +14722,7 @@
         <v>33244713.1411114</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14625,7 +14755,7 @@
         <v>33443935.5081114</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14658,7 +14788,7 @@
         <v>33478763.7928114</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -17078,6 +17208,6 @@
       <c r="M460" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-17 BackTest IOST.xlsx
+++ b/BackTest/2019-11-17 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1473,11 +1473,9 @@
         <v>3706470.472029664</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>7.7</v>
       </c>
@@ -1514,11 +1512,9 @@
         <v>3706470.472029664</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>7.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>7.7</v>
       </c>
@@ -1555,19 +1551,11 @@
         <v>4095985.306129664</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="J30" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1596,19 +1584,11 @@
         <v>3015216.107352322</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="J31" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1637,19 +1617,11 @@
         <v>3199837.758952322</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="J32" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1678,19 +1650,11 @@
         <v>2535478.647652322</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="J33" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1719,19 +1683,11 @@
         <v>2535478.647652322</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="J34" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1760,19 +1716,11 @@
         <v>2662971.120452322</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="J35" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1801,19 +1749,11 @@
         <v>3597875.578152322</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="J36" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1842,19 +1782,11 @@
         <v>4188398.652201952</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>8</v>
-      </c>
-      <c r="J37" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1883,19 +1815,11 @@
         <v>4025334.579601952</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="J38" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1924,19 +1848,11 @@
         <v>3861899.269401952</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="J39" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1965,19 +1881,11 @@
         <v>3900347.606901952</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="J40" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2006,19 +1914,11 @@
         <v>4010930.616101952</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="J41" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2047,19 +1947,11 @@
         <v>4006262.692101952</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="J42" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2088,19 +1980,11 @@
         <v>3965034.004801952</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="J43" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2129,19 +2013,11 @@
         <v>3968033.463001952</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="J44" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2173,14 +2049,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2212,14 +2082,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2251,14 +2115,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2290,14 +2148,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2329,14 +2181,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2368,14 +2214,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2407,14 +2247,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2446,14 +2280,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2485,14 +2313,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2524,14 +2346,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2563,14 +2379,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2599,19 +2409,11 @@
         <v>5322631.876501952</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="J56" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2643,14 +2445,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2679,19 +2475,11 @@
         <v>5866278.801801953</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="J58" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2723,14 +2511,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2762,14 +2544,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2801,14 +2577,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2840,14 +2610,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2879,14 +2643,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2918,14 +2676,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2957,14 +2709,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2996,14 +2742,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3035,14 +2775,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3074,14 +2808,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3113,14 +2841,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3152,14 +2874,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3191,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3230,14 +2940,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3269,14 +2973,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3308,14 +3006,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3347,14 +3039,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3386,14 +3072,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3425,14 +3105,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3464,14 +3138,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3503,14 +3171,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3542,14 +3204,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3581,14 +3237,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3620,14 +3270,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3659,14 +3303,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3698,14 +3336,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3737,14 +3369,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3776,14 +3402,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3815,14 +3435,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3854,14 +3468,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3893,14 +3501,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3932,14 +3534,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3971,14 +3567,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4010,14 +3600,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4049,14 +3633,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4088,14 +3666,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4127,14 +3699,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4166,14 +3732,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4205,14 +3765,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4244,14 +3798,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4283,14 +3831,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4322,14 +3864,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4361,14 +3897,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4400,14 +3930,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4439,14 +3963,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4478,14 +3996,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4517,14 +4029,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4556,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4595,14 +4095,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4634,14 +4128,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4673,14 +4161,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4712,14 +4194,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4751,14 +4227,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4790,14 +4260,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4826,17 +4290,11 @@
         <v>19024823.68296134</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4865,17 +4323,11 @@
         <v>20859025.80505348</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4904,17 +4356,11 @@
         <v>19141569.41555348</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4943,17 +4389,11 @@
         <v>19141569.41555348</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4982,17 +4422,11 @@
         <v>18906988.38055348</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5021,17 +4455,11 @@
         <v>20235346.66745348</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5060,17 +4488,11 @@
         <v>20979671.17275348</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5099,17 +4521,11 @@
         <v>23528783.01345348</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5138,17 +4554,11 @@
         <v>24838327.42044315</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5177,17 +4587,11 @@
         <v>23013195.64734315</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5216,17 +4620,11 @@
         <v>23600095.34670578</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5255,17 +4653,11 @@
         <v>23086342.20270578</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5297,14 +4689,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5336,14 +4722,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5375,14 +4755,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5414,14 +4788,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5453,14 +4821,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5492,14 +4854,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5531,14 +4887,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5570,14 +4920,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5609,14 +4953,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5648,14 +4986,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5687,14 +5019,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5726,14 +5052,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5765,14 +5085,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5801,17 +5115,11 @@
         <v>22242217.07776688</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5840,17 +5148,11 @@
         <v>22430054.40806688</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5879,17 +5181,11 @@
         <v>22638159.14256688</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5918,17 +5214,11 @@
         <v>22638159.14256688</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5957,17 +5247,11 @@
         <v>22673370.14256688</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5996,17 +5280,11 @@
         <v>22477110.90336688</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6035,17 +5313,11 @@
         <v>22005453.40622638</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6074,17 +5346,11 @@
         <v>21995985.93352638</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6113,17 +5379,11 @@
         <v>21638845.66982638</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6152,17 +5412,11 @@
         <v>21875213.18169705</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6191,17 +5445,11 @@
         <v>21549715.94909705</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6230,17 +5478,11 @@
         <v>21858601.47099705</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6269,17 +5511,11 @@
         <v>21865161.47099705</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6308,17 +5544,11 @@
         <v>21656152.85329705</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6350,14 +5580,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6389,14 +5613,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6428,14 +5646,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6467,14 +5679,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6506,14 +5712,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6545,14 +5745,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6584,14 +5778,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6623,14 +5811,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6662,14 +5844,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6701,14 +5877,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6740,14 +5910,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6779,14 +5943,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6818,14 +5976,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6857,14 +6009,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6896,14 +6042,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6935,14 +6075,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6974,14 +6108,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7013,14 +6141,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7052,14 +6174,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7091,14 +6207,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7130,14 +6240,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7169,14 +6273,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7208,14 +6306,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7247,14 +6339,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7286,14 +6372,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7325,14 +6405,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7364,14 +6438,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7403,14 +6471,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7442,14 +6504,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7481,14 +6537,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7520,14 +6570,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7559,14 +6603,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7598,14 +6636,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7637,14 +6669,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7676,14 +6702,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7715,14 +6735,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7754,14 +6768,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7793,14 +6801,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7832,14 +6834,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7871,14 +6867,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7910,14 +6900,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7949,14 +6933,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7988,14 +6966,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8027,14 +6999,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8066,14 +7032,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8105,14 +7065,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8144,14 +7098,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8183,14 +7131,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8222,14 +7164,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8261,14 +7197,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8300,14 +7230,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8339,14 +7263,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8378,14 +7296,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8417,14 +7329,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8456,14 +7362,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8495,14 +7395,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8534,14 +7428,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8573,14 +7461,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8612,14 +7494,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8651,14 +7527,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8690,14 +7560,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8729,14 +7593,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8768,14 +7626,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8807,14 +7659,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8846,14 +7692,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8885,14 +7725,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8924,14 +7758,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8963,14 +7791,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9002,14 +7824,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9041,14 +7857,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9080,14 +7890,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9119,14 +7923,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9158,14 +7956,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9197,14 +7989,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9236,14 +8022,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9275,14 +8055,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9314,14 +8088,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9353,14 +8121,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9392,14 +8154,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9431,14 +8187,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9470,14 +8220,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9509,14 +8253,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9548,14 +8286,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9587,14 +8319,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9626,14 +8352,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9665,14 +8385,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9704,14 +8418,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9743,14 +8451,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9782,14 +8484,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9821,14 +8517,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9860,14 +8550,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9899,14 +8583,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9938,14 +8616,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9977,14 +8649,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10016,14 +8682,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10055,14 +8715,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10094,14 +8748,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10133,14 +8781,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10172,14 +8814,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10211,14 +8847,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10250,14 +8880,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10289,14 +8913,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10328,14 +8946,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10367,14 +8979,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10406,14 +9012,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10445,14 +9045,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10484,14 +9078,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10523,14 +9111,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10562,14 +9144,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10601,14 +9177,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10640,14 +9210,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10679,14 +9243,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10718,14 +9276,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10754,23 +9306,15 @@
         <v>36921638.38542728</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
-        <v>1.287207792207792</v>
-      </c>
-      <c r="M265" t="n">
-        <v>1.038157894736842</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10795,7 +9339,7 @@
         <v>36589244.79842728</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10828,7 +9372,7 @@
         <v>36609213.81282728</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10927,7 +9471,7 @@
         <v>35507887.49672729</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10960,7 +9504,7 @@
         <v>35507887.49672729</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10993,7 +9537,7 @@
         <v>35507937.49672729</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -11455,7 +9999,7 @@
         <v>38135987.7115114</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11521,7 +10065,7 @@
         <v>36215610.17521139</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11554,7 +10098,7 @@
         <v>36652449.29431139</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11587,7 +10131,7 @@
         <v>36652449.29431139</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11620,7 +10164,7 @@
         <v>36107917.62161139</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11653,7 +10197,7 @@
         <v>36021131.29651139</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11686,7 +10230,7 @@
         <v>36218548.08751139</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11719,7 +10263,7 @@
         <v>36005989.12181139</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11752,7 +10296,7 @@
         <v>36011684.27611139</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11785,7 +10329,7 @@
         <v>35885201.14831138</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11818,7 +10362,7 @@
         <v>35103715.67431138</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11851,7 +10395,7 @@
         <v>34378087.84441139</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11884,7 +10428,7 @@
         <v>34298098.33971139</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11917,7 +10461,7 @@
         <v>34155661.46341139</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11950,7 +10494,7 @@
         <v>34913960.52691139</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11983,7 +10527,7 @@
         <v>34938220.52691139</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -12016,7 +10560,7 @@
         <v>34909243.03271139</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -12049,7 +10593,7 @@
         <v>34909243.03271139</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -12082,7 +10626,7 @@
         <v>34903103.03271139</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12874,7 +11418,7 @@
         <v>35061611.8158114</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12973,7 +11517,7 @@
         <v>34953877.91351141</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -13006,7 +11550,7 @@
         <v>35166168.99841141</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13039,7 +11583,7 @@
         <v>35243300.98421141</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13270,7 +11814,7 @@
         <v>34760013.18391141</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -14392,7 +12936,7 @@
         <v>34085280.3192114</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14425,7 +12969,7 @@
         <v>34156477.4677114</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14458,7 +13002,7 @@
         <v>34125951.20501141</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14491,7 +13035,7 @@
         <v>34122951.20501141</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14524,7 +13068,7 @@
         <v>34118446.8483114</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14722,7 +13266,7 @@
         <v>33244713.1411114</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14755,7 +13299,7 @@
         <v>33443935.5081114</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14788,7 +13332,7 @@
         <v>33478763.7928114</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -17208,6 +15752,6 @@
       <c r="M460" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-17 BackTest IOST.xlsx
+++ b/BackTest/2019-11-17 BackTest IOST.xlsx
@@ -4290,7 +4290,7 @@
         <v>19024823.68296134</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4323,7 +4323,7 @@
         <v>20859025.80505348</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4356,7 +4356,7 @@
         <v>19141569.41555348</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4389,7 +4389,7 @@
         <v>19141569.41555348</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4422,7 +4422,7 @@
         <v>18906988.38055348</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4455,7 +4455,7 @@
         <v>20235346.66745348</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4488,7 +4488,7 @@
         <v>20979671.17275348</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4521,7 +4521,7 @@
         <v>23528783.01345348</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4554,7 +4554,7 @@
         <v>24838327.42044315</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4587,7 +4587,7 @@
         <v>23013195.64734315</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4620,7 +4620,7 @@
         <v>23600095.34670578</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4653,7 +4653,7 @@
         <v>23086342.20270578</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5115,7 +5115,7 @@
         <v>22242217.07776688</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5148,7 +5148,7 @@
         <v>22430054.40806688</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5181,7 +5181,7 @@
         <v>22638159.14256688</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5214,7 +5214,7 @@
         <v>22638159.14256688</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5247,7 +5247,7 @@
         <v>22673370.14256688</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5280,7 +5280,7 @@
         <v>22477110.90336688</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5313,7 +5313,7 @@
         <v>22005453.40622638</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5346,7 +5346,7 @@
         <v>21995985.93352638</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5379,7 +5379,7 @@
         <v>21638845.66982638</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5412,7 +5412,7 @@
         <v>21875213.18169705</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5445,7 +5445,7 @@
         <v>21549715.94909705</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5478,7 +5478,7 @@
         <v>21858601.47099705</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5511,7 +5511,7 @@
         <v>21865161.47099705</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5544,7 +5544,7 @@
         <v>21656152.85329705</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -8679,7 +8679,7 @@
         <v>35606299.68452932</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8712,7 +8712,7 @@
         <v>35606299.68452932</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8745,7 +8745,7 @@
         <v>35136073.10472932</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8778,7 +8778,7 @@
         <v>36775430.19272932</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8811,7 +8811,7 @@
         <v>37970671.89338369</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8844,7 +8844,7 @@
         <v>37970671.89338369</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8877,7 +8877,7 @@
         <v>37685669.91108369</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8910,7 +8910,7 @@
         <v>37685669.91108369</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8943,7 +8943,7 @@
         <v>36842231.04818369</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8976,7 +8976,7 @@
         <v>36226421.50578369</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9009,7 +9009,7 @@
         <v>36642052.42508369</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9042,7 +9042,7 @@
         <v>36764417.90168369</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9075,7 +9075,7 @@
         <v>36764417.90168369</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9108,7 +9108,7 @@
         <v>36960591.53638369</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9141,7 +9141,7 @@
         <v>36745738.15838369</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9174,7 +9174,7 @@
         <v>36572677.49118369</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9207,7 +9207,7 @@
         <v>36468502.36118369</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9240,7 +9240,7 @@
         <v>36404763.52288369</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9306,7 +9306,7 @@
         <v>36921638.38542728</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9339,7 +9339,7 @@
         <v>36589244.79842728</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9372,7 +9372,7 @@
         <v>36609213.81282728</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9405,7 +9405,7 @@
         <v>36450351.90272728</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9438,7 +9438,7 @@
         <v>35241626.08192728</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9471,7 +9471,7 @@
         <v>35507887.49672729</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9504,7 +9504,7 @@
         <v>35507887.49672729</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9537,7 +9537,7 @@
         <v>35507937.49672729</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9570,7 +9570,7 @@
         <v>35860198.07382729</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9603,7 +9603,7 @@
         <v>38942333.1844114</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9636,7 +9636,7 @@
         <v>38404763.8688114</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9669,7 +9669,7 @@
         <v>39658768.8680114</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9702,7 +9702,7 @@
         <v>39658768.8680114</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9735,7 +9735,7 @@
         <v>40017968.9037114</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9768,7 +9768,7 @@
         <v>38942087.9613114</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9801,7 +9801,7 @@
         <v>37746588.8938114</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9834,7 +9834,7 @@
         <v>38124532.7843114</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9867,7 +9867,7 @@
         <v>38187781.6774114</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9900,7 +9900,7 @@
         <v>38150642.3419114</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9933,7 +9933,7 @@
         <v>38150642.3419114</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9966,7 +9966,7 @@
         <v>38135987.7115114</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9999,7 +9999,7 @@
         <v>38135987.7115114</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10032,7 +10032,7 @@
         <v>36215610.17521139</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10065,7 +10065,7 @@
         <v>36215610.17521139</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10098,7 +10098,7 @@
         <v>36652449.29431139</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
